--- a/xword_clue_lookup.xlsx
+++ b/xword_clue_lookup.xlsx
@@ -8,10 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="1" r:id="rId1"/>
-    <sheet name="Clue" sheetId="2" r:id="rId2"/>
+    <sheet name="Clues" sheetId="2" r:id="rId2"/>
+    <sheet name="Muses" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Clue!$A$1:$D$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Clues!$A$1:$D$27</definedName>
   </definedNames>
   <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,281 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="147">
+  <si>
+    <t>Province: Muse of dance; Attribute: Lyre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Erato</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Province: Muse of erotic poetry; Attribute: Smaller lyre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polyhymnia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Province: Muse of sacred song; Attribute: Depicted veiled and pensive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Urania</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Province: Muse of astronomy; Attribute: Celestial globe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thalia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Province: Muse of comedy and bucolic poetry; Attribute: Comic mask, ivy wreath, shepherd's staff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Muse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attributes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MELBA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tony-winner Moore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bulrush, e.g.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Another term for cattail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEERSHEBA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Southernmost city of ancient Palestine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERATO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A muse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPERA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Lohengrin", e.g.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start of North Carolina's motto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Esse quam videri is a Latin phrase meaning "To be, rather than to seem (to be)"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JIVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jazz lingo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DUANE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>One of the Allman Brothers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calliope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Province: Muse of history; Attribute: Scroll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Province: Muse of Epic Song; Attribute: Wax Tablet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Euterpe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Province: Muse of lyric song; Attribute: Double flute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Melpomene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Province: Muse of tragedy; Attribute: Tragic mask, ivy wreath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Terpsichore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>German river to the North Sea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meyers of "Kate &amp; Allie"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Front of a sheet of paper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cartoonist Peter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>River in England</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1].212</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VERSOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Left-hand pages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Formerly, once</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARTE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comic Johnson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arabian sultantate; Mideast sultantate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEYS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Old Tunisian Rules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USE NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>______ hooks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TONG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chinese secret society</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABEAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90 Degrees from fore-and-aft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warning sign; Tells longshoreman not to pierce cargo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A ruling official of the Ottoman Empire in northern Africa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1].213</t>
+  </si>
+  <si>
+    <t>[1].214</t>
+  </si>
+  <si>
+    <t>ROUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debauchee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>French river to the English Channel</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,6 +443,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>[1].211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELKE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,10 +476,6 @@
   </si>
   <si>
     <t>OMAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arabian sultantate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -335,6 +614,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -723,13 +1008,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -737,10 +1022,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -766,395 +1051,639 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="C17" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" t="s">
         <v>24</v>
       </c>
-      <c r="B32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>24</v>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D27"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -1162,4 +1691,108 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="2" max="2" width="72.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/xword_clue_lookup.xlsx
+++ b/xword_clue_lookup.xlsx
@@ -1053,7 +1053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>

--- a/xword_clue_lookup.xlsx
+++ b/xword_clue_lookup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="25060" windowHeight="12840" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="24040" windowHeight="17220" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,786 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="364">
+  <si>
+    <t>OISE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>River to the Seine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADALI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Onetime Illinois Governor Stevenson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Like Marcel Duchamp's "Mona Lisa"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOATEED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EELS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perfume from petals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Radical 60's grp.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15-percenter: Abbr.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELYS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tarzan player Ron and others</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2].31</t>
+  </si>
+  <si>
+    <t>Furrier John Jacob _____</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASTOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grassy plain of South America</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLANO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patricia ____, Best Actress for "Hud"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2].32</t>
+  </si>
+  <si>
+    <t>TORERO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Caped figther</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORLON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acrylic fiber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2].33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LISLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fine thread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2].34</t>
+  </si>
+  <si>
+    <t>ANNA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"The King and I" heroine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GWEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verdon of Broadway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poetic adverb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soon; shortly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fragrant compound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The NYT Crosswords for Two</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Will Shortz, ed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2].27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BELIE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prove false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORIEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bay window</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a projection from the wall of a building, typically supported from the ground or by corbels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RUR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Karel Capek drama</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DESTRY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"_____ Rides Again" (1939 western)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Film composer Schifrin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2].28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speaks, informally</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hagar the Horrible's wife</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REDCAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baggage porter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRIODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Certain vacuum tube</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FALDERAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nonsense: Var</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2].29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOPAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lacking face value, as stock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slightly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LENAOLIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Chocolat" actress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prince ___ Khan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period of a renter's lease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TENANCY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2].30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A play.  The basic premise involves an Irish Catholic girl and a young Jewish man who marry despite the objections of their families.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VENAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open to bribery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAELS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scottish Highlanders</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAKAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capital of Senegal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TREE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logic diagram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAUB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coat, as with plaster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1].224</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAGA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indian music</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMBIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Circumference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The scope, extent, or bounds of something</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NABOB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nattering type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defined as "a Muslim official or governor under the Mogul empire"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RENE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Levesque of Quebec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRACE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>American-born princess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work on a doily</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hooey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Something regarded as absurd; nonsense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNSTRUNG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discomposed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAMBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poetic feet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Staff leader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FARO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gambler's game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hope of Hollywood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1].220</t>
+  </si>
+  <si>
+    <t>ANKA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paul who sang "Having my baby"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>___ end (very last part)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARGYLL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Historic county of Scotland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1].221</t>
+  </si>
+  <si>
+    <t>NONO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taboo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buttonhole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEGATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emissary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMPEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Egg on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1].222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Likely</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAFES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeggs' targets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yegg = a burglar or safecracker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ILSA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rick's love in Casablanca</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Antiques Roadshow" shower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMBODIES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Personifies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1].223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWAMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Will-'-the-wisp locale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HELGA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andrew Wyeth's "____ Pictures"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CULT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heaven's Gate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANKH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good luck symbol for King Tut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABIE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Irish Rose's Guy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Before</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1].217</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LALO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Composer Schifrin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actress Lena</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cinematographer Nykvist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Harvest goddess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BELLI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attorney Melvin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spoon-bender Geller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Political cartoonist Thomas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TITO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maverick Yugoslav leader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ODER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>German border river</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RANDI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Amazing" magician</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ryan's "Love Story" co-star</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOLA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Singer Falana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art deco notable; Art deco artist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Writer Bagnold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Put a wing (on)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LORN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Foresaken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Firpo of the ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TORIAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character actor George</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOTTE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Singer Lenya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G-CLEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>Province: Muse of dance; Attribute: Lyre</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,6 +849,82 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>[1].215</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>They're kept in cabinets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORONO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University town near Bangor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOPI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pueblo dwellers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLOC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conservatives or liberals, say, in the Senate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KNELL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ring slowly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENURE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accustom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOUR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forbidding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RABE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Playwright David</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Always, to a poet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>MELBA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -292,6 +1147,15 @@
     <t>[1].214</t>
   </si>
   <si>
+    <t>[1].216</t>
+  </si>
+  <si>
+    <t>[1].218</t>
+  </si>
+  <si>
+    <t>[1].219</t>
+  </si>
+  <si>
     <t>ROUE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -559,10 +1423,6 @@
   </si>
   <si>
     <t>ERTE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Art deco notable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -997,7 +1857,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1008,13 +1868,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>325</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>326</v>
       </c>
       <c r="C1" t="s">
-        <v>109</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1022,16 +1882,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>329</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
@@ -1039,6 +1905,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -1051,635 +1918,1703 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>348</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>349</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>350</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>330</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>331</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>330</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>338</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>330</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>341</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>330</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>334</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>330</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>336</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>330</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>339</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>330</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>342</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>330</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>344</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>330</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>346</v>
       </c>
       <c r="C10" t="s">
-        <v>129</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>351</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>352</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>351</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>353</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>137</v>
+        <v>354</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>351</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>355</v>
       </c>
       <c r="C13" t="s">
-        <v>139</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>351</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>357</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>351</v>
       </c>
       <c r="B15" t="s">
-        <v>142</v>
+        <v>359</v>
       </c>
       <c r="C15" t="s">
-        <v>143</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>351</v>
       </c>
       <c r="B16" t="s">
-        <v>144</v>
+        <v>361</v>
       </c>
       <c r="C16" t="s">
-        <v>145</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>133</v>
+        <v>351</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
+        <v>363</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>133</v>
+        <v>351</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>288</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>351</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>290</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>351</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>292</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>351</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>294</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>296</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>297</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>296</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>299</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>296</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>301</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>296</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>303</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>311</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>305</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>311</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>307</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>308</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>311</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>312</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>311</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>314</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>311</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>316</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>311</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>318</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>311</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>320</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>323</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>324</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>323</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>254</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>323</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>256</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>323</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>258</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>105</v>
+        <v>323</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>262</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>263</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>262</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>267</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>262</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>270</v>
       </c>
       <c r="C40" t="s">
-        <v>56</v>
+        <v>271</v>
       </c>
       <c r="D40" t="s">
-        <v>64</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>262</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>272</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>273</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>262</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>264</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>262</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>274</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>275</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>262</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>276</v>
       </c>
       <c r="C44" t="s">
-        <v>62</v>
+        <v>277</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>280</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>285</v>
       </c>
       <c r="C45" t="s">
-        <v>68</v>
+        <v>286</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>280</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>226</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>280</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>228</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>280</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>231</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>280</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>233</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>280</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>235</v>
       </c>
       <c r="C50" t="s">
-        <v>21</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>280</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>237</v>
       </c>
       <c r="C51" t="s">
-        <v>23</v>
+        <v>238</v>
       </c>
       <c r="D51" t="s">
-        <v>24</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>281</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>240</v>
       </c>
       <c r="C52" t="s">
-        <v>26</v>
+        <v>241</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>281</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>242</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>243</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>207</v>
+      </c>
+      <c r="B54" t="s">
+        <v>209</v>
+      </c>
+      <c r="C54" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
+        <v>207</v>
+      </c>
+      <c r="B55" t="s">
+        <v>210</v>
+      </c>
+      <c r="C55" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>207</v>
+      </c>
+      <c r="B56" t="s">
+        <v>212</v>
+      </c>
+      <c r="C56" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>207</v>
+      </c>
+      <c r="B57" t="s">
+        <v>214</v>
+      </c>
+      <c r="C57" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>207</v>
+      </c>
+      <c r="B58" t="s">
+        <v>216</v>
+      </c>
+      <c r="C58" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>207</v>
+      </c>
+      <c r="B59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C59" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>207</v>
+      </c>
+      <c r="B60" t="s">
+        <v>220</v>
+      </c>
+      <c r="C60" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>282</v>
+      </c>
+      <c r="B61" t="s">
+        <v>222</v>
+      </c>
+      <c r="C61" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>282</v>
+      </c>
+      <c r="B62" t="s">
+        <v>224</v>
+      </c>
+      <c r="C62" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>282</v>
+      </c>
+      <c r="B63" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>282</v>
+      </c>
+      <c r="B64" t="s">
+        <v>155</v>
+      </c>
+      <c r="C64" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>157</v>
+      </c>
+      <c r="B65" t="s">
+        <v>158</v>
+      </c>
+      <c r="C65" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>157</v>
+      </c>
+      <c r="B66" t="s">
+        <v>160</v>
+      </c>
+      <c r="C66" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>157</v>
+      </c>
+      <c r="B67" t="s">
+        <v>162</v>
+      </c>
+      <c r="C67" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>157</v>
+      </c>
+      <c r="B68" t="s">
+        <v>164</v>
+      </c>
+      <c r="C68" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>157</v>
+      </c>
+      <c r="B69" t="s">
+        <v>166</v>
+      </c>
+      <c r="C69" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>157</v>
+      </c>
+      <c r="B70" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>157</v>
+      </c>
+      <c r="B71" t="s">
+        <v>170</v>
+      </c>
+      <c r="C71" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>157</v>
+      </c>
+      <c r="B72" t="s">
+        <v>172</v>
+      </c>
+      <c r="C72" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>157</v>
+      </c>
+      <c r="B73" t="s">
+        <v>174</v>
+      </c>
+      <c r="C73" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>283</v>
+      </c>
+      <c r="B74" t="s">
+        <v>176</v>
+      </c>
+      <c r="C74" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>283</v>
+      </c>
+      <c r="B75" t="s">
+        <v>178</v>
+      </c>
+      <c r="C75" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>283</v>
+      </c>
+      <c r="B76" t="s">
+        <v>180</v>
+      </c>
+      <c r="C76" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>283</v>
+      </c>
+      <c r="B77" t="s">
+        <v>183</v>
+      </c>
+      <c r="C77" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>283</v>
+      </c>
+      <c r="B78" t="s">
+        <v>185</v>
+      </c>
+      <c r="C78" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>284</v>
+      </c>
+      <c r="B79" t="s">
+        <v>187</v>
+      </c>
+      <c r="C79" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>284</v>
+      </c>
+      <c r="B80" t="s">
+        <v>189</v>
+      </c>
+      <c r="C80" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>284</v>
+      </c>
+      <c r="B81" t="s">
+        <v>191</v>
+      </c>
+      <c r="C81" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>284</v>
+      </c>
+      <c r="B82" t="s">
+        <v>193</v>
+      </c>
+      <c r="C82" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>284</v>
+      </c>
+      <c r="B83" t="s">
+        <v>195</v>
+      </c>
+      <c r="C83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>284</v>
+      </c>
+      <c r="B84" t="s">
+        <v>110</v>
+      </c>
+      <c r="C84" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>284</v>
+      </c>
+      <c r="B85" t="s">
+        <v>112</v>
+      </c>
+      <c r="C85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>114</v>
+      </c>
+      <c r="B86" t="s">
+        <v>115</v>
+      </c>
+      <c r="C86" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>114</v>
+      </c>
+      <c r="B87" t="s">
+        <v>117</v>
+      </c>
+      <c r="C87" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>114</v>
+      </c>
+      <c r="B88" t="s">
+        <v>119</v>
+      </c>
+      <c r="C88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>121</v>
+      </c>
+      <c r="B89" t="s">
+        <v>122</v>
+      </c>
+      <c r="C89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>121</v>
+      </c>
+      <c r="B90" t="s">
+        <v>124</v>
+      </c>
+      <c r="C90" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>121</v>
+      </c>
+      <c r="B91" t="s">
+        <v>126</v>
+      </c>
+      <c r="C91" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>121</v>
+      </c>
+      <c r="B92" t="s">
+        <v>128</v>
+      </c>
+      <c r="C92" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>130</v>
+      </c>
+      <c r="B93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C93" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>130</v>
+      </c>
+      <c r="B94" t="s">
+        <v>133</v>
+      </c>
+      <c r="C94" t="s">
+        <v>134</v>
+      </c>
+      <c r="D94" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>130</v>
+      </c>
+      <c r="B95" t="s">
+        <v>136</v>
+      </c>
+      <c r="C95" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>130</v>
+      </c>
+      <c r="B96" t="s">
+        <v>138</v>
+      </c>
+      <c r="C96" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>130</v>
+      </c>
+      <c r="B97" t="s">
+        <v>140</v>
+      </c>
+      <c r="C97" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>142</v>
+      </c>
+      <c r="B98" t="s">
+        <v>143</v>
+      </c>
+      <c r="C98" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>142</v>
+      </c>
+      <c r="B99" t="s">
+        <v>145</v>
+      </c>
+      <c r="C99" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>142</v>
+      </c>
+      <c r="B100" t="s">
+        <v>147</v>
+      </c>
+      <c r="C100" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>142</v>
+      </c>
+      <c r="B101" t="s">
+        <v>149</v>
+      </c>
+      <c r="C101" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B102" t="s">
+        <v>151</v>
+      </c>
+      <c r="C102" t="s">
+        <v>152</v>
+      </c>
+      <c r="D102" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>142</v>
+      </c>
+      <c r="B103" t="s">
+        <v>76</v>
+      </c>
+      <c r="C103" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>142</v>
+      </c>
+      <c r="B104" t="s">
+        <v>78</v>
+      </c>
+      <c r="C104" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>142</v>
+      </c>
+      <c r="B105" t="s">
+        <v>80</v>
+      </c>
+      <c r="C105" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>142</v>
+      </c>
+      <c r="B106" t="s">
+        <v>82</v>
+      </c>
+      <c r="C106" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>86</v>
+      </c>
+      <c r="B107" t="s">
+        <v>84</v>
+      </c>
+      <c r="C107" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>86</v>
+      </c>
+      <c r="B108" t="s">
+        <v>87</v>
+      </c>
+      <c r="C108" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>86</v>
+      </c>
+      <c r="B109" t="s">
+        <v>89</v>
+      </c>
+      <c r="C109" t="s">
+        <v>90</v>
+      </c>
+      <c r="D109" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>86</v>
+      </c>
+      <c r="B110" t="s">
+        <v>92</v>
+      </c>
+      <c r="C110" t="s">
+        <v>93</v>
+      </c>
+      <c r="D110" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>86</v>
+      </c>
+      <c r="B111" t="s">
+        <v>95</v>
+      </c>
+      <c r="C111" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>86</v>
+      </c>
+      <c r="B112" t="s">
+        <v>97</v>
+      </c>
+      <c r="C112" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>86</v>
+      </c>
+      <c r="B113" t="s">
+        <v>99</v>
+      </c>
+      <c r="C113" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>86</v>
+      </c>
+      <c r="B114" t="s">
+        <v>101</v>
+      </c>
+      <c r="C114" t="s">
+        <v>102</v>
+      </c>
+      <c r="D114" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>86</v>
+      </c>
+      <c r="B115" t="s">
+        <v>104</v>
+      </c>
+      <c r="C115" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>86</v>
+      </c>
+      <c r="B116" t="s">
+        <v>106</v>
+      </c>
+      <c r="C116" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>86</v>
+      </c>
+      <c r="B117" t="s">
+        <v>108</v>
+      </c>
+      <c r="C117" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>42</v>
+      </c>
+      <c r="B118" t="s">
+        <v>43</v>
+      </c>
+      <c r="C118" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>42</v>
+      </c>
+      <c r="B119" t="s">
+        <v>45</v>
+      </c>
+      <c r="C119" t="s">
+        <v>46</v>
+      </c>
+      <c r="D119" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>42</v>
+      </c>
+      <c r="B120" t="s">
+        <v>48</v>
+      </c>
+      <c r="C120" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>42</v>
+      </c>
+      <c r="B121" t="s">
+        <v>50</v>
+      </c>
+      <c r="C121" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>42</v>
+      </c>
+      <c r="B122" t="s">
+        <v>158</v>
+      </c>
+      <c r="C122" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>53</v>
+      </c>
+      <c r="B123" t="s">
+        <v>55</v>
+      </c>
+      <c r="C123" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>53</v>
+      </c>
+      <c r="B124" t="s">
+        <v>145</v>
+      </c>
+      <c r="C124" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>53</v>
+      </c>
+      <c r="B125" t="s">
+        <v>57</v>
+      </c>
+      <c r="C125" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>53</v>
+      </c>
+      <c r="B126" t="s">
+        <v>59</v>
+      </c>
+      <c r="C126" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>53</v>
+      </c>
+      <c r="B127" t="s">
+        <v>61</v>
+      </c>
+      <c r="C127" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>63</v>
+      </c>
+      <c r="B128" t="s">
+        <v>64</v>
+      </c>
+      <c r="C128" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>63</v>
+      </c>
+      <c r="B129" t="s">
         <v>66</v>
       </c>
+      <c r="C129" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>63</v>
+      </c>
+      <c r="B130" t="s">
+        <v>68</v>
+      </c>
+      <c r="C130" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>63</v>
+      </c>
+      <c r="B131" t="s">
+        <v>70</v>
+      </c>
+      <c r="C131" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>63</v>
+      </c>
+      <c r="B132" t="s">
+        <v>73</v>
+      </c>
+      <c r="C132" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>74</v>
+      </c>
+      <c r="B133" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>74</v>
+      </c>
+      <c r="B134" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>74</v>
+      </c>
+      <c r="B135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>74</v>
+      </c>
+      <c r="B136" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>74</v>
+      </c>
+      <c r="B137" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>74</v>
+      </c>
+      <c r="B138" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>74</v>
+      </c>
+      <c r="B139" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>74</v>
+      </c>
+      <c r="B140" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>16</v>
+      </c>
+      <c r="B141" t="s">
+        <v>18</v>
+      </c>
+      <c r="C141" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>16</v>
+      </c>
+      <c r="B142" t="s">
+        <v>20</v>
+      </c>
+      <c r="C142" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>16</v>
+      </c>
+      <c r="B143" t="s">
+        <v>21</v>
+      </c>
+      <c r="C143" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>23</v>
+      </c>
+      <c r="B144" t="s">
+        <v>24</v>
+      </c>
+      <c r="C144" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>23</v>
+      </c>
+      <c r="B145" t="s">
+        <v>26</v>
+      </c>
+      <c r="C145" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>28</v>
+      </c>
+      <c r="B146" t="s">
+        <v>29</v>
+      </c>
+      <c r="C146" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>31</v>
+      </c>
+      <c r="B147" t="s">
+        <v>32</v>
+      </c>
+      <c r="C147" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>31</v>
+      </c>
+      <c r="B148" t="s">
+        <v>34</v>
+      </c>
+      <c r="C148" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>31</v>
+      </c>
+      <c r="B149" t="s">
+        <v>36</v>
+      </c>
+      <c r="C149" t="s">
+        <v>37</v>
+      </c>
+      <c r="D149" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <autoFilter ref="A1:D27"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1708,85 +3643,86 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>205</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>244</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>245</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>248</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>250</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>252</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>197</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>199</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>201</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/xword_clue_lookup.xlsx
+++ b/xword_clue_lookup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="24040" windowHeight="17220" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1320" yWindow="-20" windowWidth="24040" windowHeight="17220" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,1278 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="392">
+  <si>
+    <t>Playwright Burrows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELLA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raines of filmdom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nancy Drew's beau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SARG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Puppeteer Tony</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOMME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1].225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amo, ____, amat (Latin exercise)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANDANTE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moderately slow, in music</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1].226</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIRAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>French fighter jet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Midmorning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Picnic" playwright</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PELLMELL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Headlong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in a confused, rushed, or disorderly manner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARNE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>English composer Thomas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAGMAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Broadway Open House" regular, in 50's TV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NRA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F.D.R.'s Bllue Eagle Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eagerly expecting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1].227</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Provide storage for forage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENSILE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STYE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eyelid swelling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warning sign; Tells longshoreman not to pierce cargo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A ruling official of the Ottoman Empire in northern Africa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1].213</t>
+  </si>
+  <si>
+    <t>[1].214</t>
+  </si>
+  <si>
+    <t>[1].216</t>
+  </si>
+  <si>
+    <t>[1].218</t>
+  </si>
+  <si>
+    <t>[1].219</t>
+  </si>
+  <si>
+    <t>ROUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debauchee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>French river to the English Channel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ODOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polecat's defence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30's boxing champ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skier's transport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Novelist Deighton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1].209</t>
+  </si>
+  <si>
+    <t>EYDIE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Singer Gorme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gaelic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CIA forerunner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>___ de la Plata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGHA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turkish title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lariat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a rope used as a lasso or for tethering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1].210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>River to the Fulder (Germany)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLARO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cousin of a stogie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARNE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Composer Thomas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID EST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That is</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Newswoman Sherr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Based on the legend of the Pied Piper of Hamelin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1].211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELKE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Author</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Will Shortz, ed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The NYT Supersized Book of Easy Crosswords: 500 Puzzles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1].207</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OMAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>South American plains</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jerk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OBOE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Relative of the heckelphone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OONA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mrs. Chaplin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAMPOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COCAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drug yielding planrs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHLEMIEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHMO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sad sack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INGA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actress Swenson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDHS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Old english letters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1].208</t>
+  </si>
+  <si>
+    <t>ERTE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hamelin critter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOPI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pueblo dwellers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLOC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conservatives or liberals, say, in the Senate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KNELL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ring slowly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENURE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accustom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOUR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forbidding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RABE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Playwright David</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Always, to a poet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MELBA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tony-winner Moore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bulrush, e.g.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Another term for cattail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEERSHEBA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Southernmost city of ancient Palestine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERATO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A muse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPERA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Lohengrin", e.g.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start of North Carolina's motto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Esse quam videri is a Latin phrase meaning "To be, rather than to seem (to be)"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JIVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jazz lingo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DUANE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>One of the Allman Brothers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calliope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Province: Muse of history; Attribute: Scroll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Province: Muse of Epic Song; Attribute: Wax Tablet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Euterpe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Province: Muse of lyric song; Attribute: Double flute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Melpomene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Province: Muse of tragedy; Attribute: Tragic mask, ivy wreath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Terpsichore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>German river to the North Sea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meyers of "Kate &amp; Allie"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Front of a sheet of paper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cartoonist Peter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>River in England</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1].212</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VERSOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Left-hand pages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Formerly, once</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARTE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comic Johnson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arabian sultantate; Mideast sultantate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEYS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Old Tunisian Rules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USE NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>______ hooks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TONG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chinese secret society</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABEAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90 Degrees from fore-and-aft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Will-'-the-wisp locale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HELGA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andrew Wyeth's "____ Pictures"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CULT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heaven's Gate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANKH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good luck symbol for King Tut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABIE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Irish Rose's Guy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Before</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1].217</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LALO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Composer Schifrin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actress Lena</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cinematographer Nykvist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Harvest goddess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BELLI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attorney Melvin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spoon-bender Geller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Political cartoonist Thomas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TITO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maverick Yugoslav leader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ODER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>German border river</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RANDI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Amazing" magician</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ryan's "Love Story" co-star</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOLA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Singer Falana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art deco notable; Art deco artist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Writer Bagnold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Put a wing (on)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LORN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Foresaken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Firpo of the ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TORIAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character actor George</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOTTE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Singer Lenya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G-CLEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Province: Muse of dance; Attribute: Lyre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Erato</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Province: Muse of erotic poetry; Attribute: Smaller lyre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polyhymnia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Province: Muse of sacred song; Attribute: Depicted veiled and pensive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Urania</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Province: Muse of astronomy; Attribute: Celestial globe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thalia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Province: Muse of comedy and bucolic poetry; Attribute: Comic mask, ivy wreath, shepherd's staff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Muse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attributes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1].215</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>They're kept in cabinets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORONO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University town near Bangor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period of a renter's lease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TENANCY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2].30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A play.  The basic premise involves an Irish Catholic girl and a young Jewish man who marry despite the objections of their families.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VENAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open to bribery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAELS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scottish Highlanders</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAKAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capital of Senegal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TREE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logic diagram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAUB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coat, as with plaster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1].224</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAGA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indian music</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMBIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Circumference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The scope, extent, or bounds of something</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NABOB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nattering type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defined as "a Muslim official or governor under the Mogul empire"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RENE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Levesque of Quebec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRACE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>American-born princess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work on a doily</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hooey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Something regarded as absurd; nonsense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNSTRUNG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discomposed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAMBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poetic feet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Staff leader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FARO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gambler's game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hope of Hollywood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1].220</t>
+  </si>
+  <si>
+    <t>ANKA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paul who sang "Having my baby"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>___ end (very last part)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARGYLL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Historic county of Scotland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1].221</t>
+  </si>
+  <si>
+    <t>NONO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taboo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buttonhole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEGATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emissary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMPEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Egg on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1].222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Likely</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAFES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeggs' targets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yegg = a burglar or safecracker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ILSA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rick's love in Casablanca</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Antiques Roadshow" shower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMBODIES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Personifies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1].223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWAMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>OISE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -308,1165 +1579,6 @@
   </si>
   <si>
     <t>Prince ___ Khan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period of a renter's lease</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TENANCY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2].30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A play.  The basic premise involves an Irish Catholic girl and a young Jewish man who marry despite the objections of their families.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VENAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open to bribery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAELS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scottish Highlanders</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAKAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Capital of Senegal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TREE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Logic diagram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAUB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coat, as with plaster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1].224</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RAGA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Indian music</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AMBIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Circumference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The scope, extent, or bounds of something</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NABOB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nattering type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Defined as "a Muslim official or governor under the Mogul empire"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RENE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Levesque of Quebec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRACE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>American-born princess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Work on a doily</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOSH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hooey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Something regarded as absurd; nonsense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNSTRUNG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Discomposed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IAMBS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poetic feet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ESTER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Staff leader</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FARO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gambler's game</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LANGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hope of Hollywood</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1].220</t>
-  </si>
-  <si>
-    <t>ANKA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Paul who sang "Having my baby"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>___ end (very last part)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARGYLL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Historic county of Scotland</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1].221</t>
-  </si>
-  <si>
-    <t>NONO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taboo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buttonhole</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEGATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Emissary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IMPEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Egg on</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1].222</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Likely</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SAFES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yeggs' targets</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yegg = a burglar or safecracker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ILSA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rick's love in Casablanca</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PBS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Antiques Roadshow" shower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMBODIES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Personifies</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1].223</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SWAMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Will-'-the-wisp locale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HELGA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Andrew Wyeth's "____ Pictures"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CULT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heaven's Gate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANKH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Good luck symbol for King Tut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABIE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Irish Rose's Guy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Before</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1].217</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LALO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Composer Schifrin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OLIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actress Lena</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SVEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cinematographer Nykvist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Harvest goddess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BELLI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attorney Melvin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spoon-bender Geller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Political cartoonist Thomas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TITO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maverick Yugoslav leader</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ODER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>German border river</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RANDI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Amazing" magician</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ryan's "Love Story" co-star</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOLA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Singer Falana</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Art deco notable; Art deco artist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Writer Bagnold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Put a wing (on)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LORN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Foresaken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LUIS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Firpo of the ring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TORIAS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character actor George</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOTTE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Singer Lenya</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G-CLEF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Province: Muse of dance; Attribute: Lyre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Erato</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Province: Muse of erotic poetry; Attribute: Smaller lyre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Polyhymnia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Province: Muse of sacred song; Attribute: Depicted veiled and pensive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Urania</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Province: Muse of astronomy; Attribute: Celestial globe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thalia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Province: Muse of comedy and bucolic poetry; Attribute: Comic mask, ivy wreath, shepherd's staff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Muse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attributes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1].215</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>They're kept in cabinets</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FILES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORONO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University town near Bangor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HOPI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pueblo dwellers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BLOC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Conservatives or liberals, say, in the Senate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KNELL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ring slowly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENURE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Accustom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DOUR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Forbidding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RABE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Playwright David</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Always, to a poet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MELBA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tony-winner Moore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bulrush, e.g.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Another term for cattail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BEERSHEBA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Southernmost city of ancient Palestine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERATO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A muse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPERA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Lohengrin", e.g.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ESSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Start of North Carolina's motto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Esse quam videri is a Latin phrase meaning "To be, rather than to seem (to be)"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JIVE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jazz lingo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DUANE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>One of the Allman Brothers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Calliope</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Province: Muse of history; Attribute: Scroll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Province: Muse of Epic Song; Attribute: Wax Tablet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Euterpe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Province: Muse of lyric song; Attribute: Double flute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Melpomene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Province: Muse of tragedy; Attribute: Tragic mask, ivy wreath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Terpsichore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>German river to the North Sea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Meyers of "Kate &amp; Allie"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RECTO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Front of a sheet of paper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARNO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cartoonist Peter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OUSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>River in England</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1].212</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VERSOS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Left-hand pages</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Formerly, once</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARTE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comic Johnson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arabian sultantate; Mideast sultantate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEYS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Old Tunisian Rules</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USE NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>______ hooks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TONG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chinese secret society</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABEAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90 Degrees from fore-and-aft</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Warning sign; Tells longshoreman not to pierce cargo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A ruling official of the Ottoman Empire in northern Africa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1].213</t>
-  </si>
-  <si>
-    <t>[1].214</t>
-  </si>
-  <si>
-    <t>[1].216</t>
-  </si>
-  <si>
-    <t>[1].218</t>
-  </si>
-  <si>
-    <t>[1].219</t>
-  </si>
-  <si>
-    <t>ROUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Debauchee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>French river to the English Channel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ODOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Polecat's defence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BAER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30's boxing champ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skier's transport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Novelist Deighton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1].209</t>
-  </si>
-  <si>
-    <t>EYDIE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Singer Gorme</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gaelic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CIA forerunner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RIO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>___ de la Plata</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGHA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turkish title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REATA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lariat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a rope used as a lasso or for tethering</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1].210</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EDER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>River to the Fulder (Germany)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CLARO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cousin of a stogie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARNE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Composer Thomas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID EST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>That is</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYNN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Newswoman Sherr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Based on the legend of the Pied Piper of Hamelin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1].211</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ELKE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Author</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Will Shortz, ed.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The NYT Supersized Book of Easy Crosswords: 500 Puzzles</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1].207</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OMAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>South American plains</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jerk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OBOE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Relative of the heckelphone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OONA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mrs. Chaplin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAMPOS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COCAS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Drug yielding planrs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHLEMIEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHMO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sad sack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INGA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actress Swenson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EDHS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Old english letters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Answer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1].208</t>
-  </si>
-  <si>
-    <t>ERTE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hamelin critter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Playwright Burrows</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ELLA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Raines of filmdom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nancy Drew's beau</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SARG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Puppeteer Tony</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOMME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1474,12 +1586,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -1868,13 +1974,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>325</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>326</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>327</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1882,10 +1988,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>329</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>328</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1893,10 +1999,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>360</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1905,7 +2011,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -1918,10 +2023,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:D149"/>
+  <dimension ref="A1:D163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="D159" sqref="D159"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="A162" sqref="A162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1934,1691 +2039,1834 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>348</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>349</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>350</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>310</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>330</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>331</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>269</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>330</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>338</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>332</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>330</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>341</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>333</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>330</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>334</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>335</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>330</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>336</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>337</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>330</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>339</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>340</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>330</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>342</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>343</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>330</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>344</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>345</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>330</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>346</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
-        <v>347</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>351</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>352</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>351</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s">
-        <v>353</v>
+        <v>111</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>354</v>
+        <v>112</v>
       </c>
       <c r="D12" t="s">
-        <v>322</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>351</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s">
-        <v>355</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>351</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>357</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>358</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>351</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s">
-        <v>359</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>360</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>351</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>361</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>362</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>351</v>
+        <v>109</v>
       </c>
       <c r="B17" t="s">
-        <v>363</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>287</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>351</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>288</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>289</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>351</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>290</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>291</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>351</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
-        <v>292</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>293</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>351</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>294</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>295</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>296</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>297</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>298</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>296</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>299</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>300</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>296</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>301</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>302</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>296</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>303</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>304</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>311</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>305</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>306</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>311</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>307</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>308</v>
+        <v>66</v>
       </c>
       <c r="D27" t="s">
-        <v>309</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>311</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>312</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>313</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>311</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>314</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>315</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>311</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>316</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>317</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>311</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>318</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>319</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>311</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>320</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>321</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>323</v>
+        <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>324</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>253</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>323</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>254</v>
+        <v>156</v>
       </c>
       <c r="C34" t="s">
-        <v>255</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>323</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s">
-        <v>256</v>
+        <v>158</v>
       </c>
       <c r="C35" t="s">
-        <v>257</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>323</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s">
-        <v>258</v>
+        <v>160</v>
       </c>
       <c r="C36" t="s">
-        <v>259</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>323</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
-        <v>260</v>
+        <v>162</v>
       </c>
       <c r="C37" t="s">
-        <v>261</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>262</v>
+        <v>164</v>
       </c>
       <c r="B38" t="s">
-        <v>263</v>
+        <v>165</v>
       </c>
       <c r="C38" t="s">
-        <v>265</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>262</v>
+        <v>164</v>
       </c>
       <c r="B39" t="s">
-        <v>267</v>
+        <v>169</v>
       </c>
       <c r="C39" t="s">
-        <v>268</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>262</v>
+        <v>164</v>
       </c>
       <c r="B40" t="s">
-        <v>270</v>
+        <v>172</v>
       </c>
       <c r="C40" t="s">
-        <v>271</v>
+        <v>173</v>
       </c>
       <c r="D40" t="s">
-        <v>279</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>262</v>
+        <v>164</v>
       </c>
       <c r="B41" t="s">
-        <v>272</v>
+        <v>174</v>
       </c>
       <c r="C41" t="s">
-        <v>273</v>
+        <v>175</v>
       </c>
       <c r="D41" t="s">
-        <v>278</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>262</v>
+        <v>164</v>
       </c>
       <c r="B42" t="s">
-        <v>264</v>
+        <v>166</v>
       </c>
       <c r="C42" t="s">
-        <v>266</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>262</v>
+        <v>164</v>
       </c>
       <c r="B43" t="s">
-        <v>274</v>
+        <v>176</v>
       </c>
       <c r="C43" t="s">
-        <v>275</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>262</v>
+        <v>164</v>
       </c>
       <c r="B44" t="s">
-        <v>276</v>
+        <v>178</v>
       </c>
       <c r="C44" t="s">
-        <v>277</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>280</v>
+        <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>285</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>286</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>280</v>
+        <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>226</v>
+        <v>128</v>
       </c>
       <c r="C46" t="s">
-        <v>227</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>280</v>
+        <v>38</v>
       </c>
       <c r="B47" t="s">
-        <v>228</v>
+        <v>130</v>
       </c>
       <c r="C47" t="s">
-        <v>229</v>
+        <v>131</v>
       </c>
       <c r="D47" t="s">
-        <v>230</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>280</v>
+        <v>38</v>
       </c>
       <c r="B48" t="s">
-        <v>231</v>
+        <v>133</v>
       </c>
       <c r="C48" t="s">
-        <v>232</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>280</v>
+        <v>38</v>
       </c>
       <c r="B49" t="s">
-        <v>233</v>
+        <v>135</v>
       </c>
       <c r="C49" t="s">
-        <v>234</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>280</v>
+        <v>38</v>
       </c>
       <c r="B50" t="s">
-        <v>235</v>
+        <v>137</v>
       </c>
       <c r="C50" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>280</v>
+        <v>38</v>
       </c>
       <c r="B51" t="s">
-        <v>237</v>
+        <v>139</v>
       </c>
       <c r="C51" t="s">
-        <v>238</v>
+        <v>140</v>
       </c>
       <c r="D51" t="s">
-        <v>239</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>281</v>
+        <v>39</v>
       </c>
       <c r="B52" t="s">
-        <v>240</v>
+        <v>142</v>
       </c>
       <c r="C52" t="s">
-        <v>241</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>281</v>
+        <v>39</v>
       </c>
       <c r="B53" t="s">
-        <v>242</v>
+        <v>144</v>
       </c>
       <c r="C53" t="s">
-        <v>243</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="B54" t="s">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="C54" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="B55" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="C55" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="B56" t="s">
-        <v>212</v>
+        <v>114</v>
       </c>
       <c r="C56" t="s">
-        <v>213</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="B57" t="s">
-        <v>214</v>
+        <v>116</v>
       </c>
       <c r="C57" t="s">
-        <v>215</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="B58" t="s">
-        <v>216</v>
+        <v>118</v>
       </c>
       <c r="C58" t="s">
-        <v>217</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="B59" t="s">
-        <v>218</v>
+        <v>120</v>
       </c>
       <c r="C59" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="B60" t="s">
-        <v>220</v>
+        <v>122</v>
       </c>
       <c r="C60" t="s">
-        <v>221</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>282</v>
+        <v>40</v>
       </c>
       <c r="B61" t="s">
-        <v>222</v>
+        <v>124</v>
       </c>
       <c r="C61" t="s">
-        <v>223</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>282</v>
+        <v>40</v>
       </c>
       <c r="B62" t="s">
-        <v>224</v>
+        <v>126</v>
       </c>
       <c r="C62" t="s">
-        <v>225</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>282</v>
+        <v>40</v>
       </c>
       <c r="B63" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="C63" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>282</v>
+        <v>40</v>
       </c>
       <c r="B64" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="C64" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="B65" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="C65" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="B66" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="C66" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="B67" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="C67" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="B68" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="C68" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="B69" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="C69" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="B70" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="C70" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="B71" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="C71" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="B72" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="C72" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="B73" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="C73" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>283</v>
+        <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="C74" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>283</v>
+        <v>41</v>
       </c>
       <c r="B75" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="C75" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>283</v>
+        <v>41</v>
       </c>
       <c r="B76" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="C76" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>283</v>
+        <v>41</v>
       </c>
       <c r="B77" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="C77" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>283</v>
+        <v>41</v>
       </c>
       <c r="B78" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="C78" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>284</v>
+        <v>42</v>
       </c>
       <c r="B79" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="C79" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>284</v>
+        <v>42</v>
       </c>
       <c r="B80" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="C80" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>284</v>
+        <v>42</v>
       </c>
       <c r="B81" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="C81" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>284</v>
+        <v>42</v>
       </c>
       <c r="B82" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="C82" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>284</v>
+        <v>42</v>
       </c>
       <c r="B83" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="C83" t="s">
-        <v>109</v>
+        <v>285</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>284</v>
+        <v>42</v>
       </c>
       <c r="B84" t="s">
-        <v>110</v>
+        <v>286</v>
       </c>
       <c r="C84" t="s">
-        <v>111</v>
+        <v>287</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>284</v>
+        <v>42</v>
       </c>
       <c r="B85" t="s">
-        <v>112</v>
+        <v>288</v>
       </c>
       <c r="C85" t="s">
-        <v>113</v>
+        <v>289</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>114</v>
+        <v>290</v>
       </c>
       <c r="B86" t="s">
-        <v>115</v>
+        <v>291</v>
       </c>
       <c r="C86" t="s">
-        <v>116</v>
+        <v>292</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>114</v>
+        <v>290</v>
       </c>
       <c r="B87" t="s">
-        <v>117</v>
+        <v>293</v>
       </c>
       <c r="C87" t="s">
-        <v>118</v>
+        <v>294</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>114</v>
+        <v>290</v>
       </c>
       <c r="B88" t="s">
-        <v>119</v>
+        <v>295</v>
       </c>
       <c r="C88" t="s">
-        <v>120</v>
+        <v>296</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>121</v>
+        <v>297</v>
       </c>
       <c r="B89" t="s">
-        <v>122</v>
+        <v>298</v>
       </c>
       <c r="C89" t="s">
-        <v>123</v>
+        <v>299</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>121</v>
+        <v>297</v>
       </c>
       <c r="B90" t="s">
-        <v>124</v>
+        <v>300</v>
       </c>
       <c r="C90" t="s">
-        <v>125</v>
+        <v>301</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>121</v>
+        <v>297</v>
       </c>
       <c r="B91" t="s">
-        <v>126</v>
+        <v>302</v>
       </c>
       <c r="C91" t="s">
-        <v>127</v>
+        <v>303</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>121</v>
+        <v>297</v>
       </c>
       <c r="B92" t="s">
-        <v>128</v>
+        <v>304</v>
       </c>
       <c r="C92" t="s">
-        <v>129</v>
+        <v>305</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>130</v>
+        <v>306</v>
       </c>
       <c r="B93" t="s">
-        <v>131</v>
+        <v>307</v>
       </c>
       <c r="C93" t="s">
-        <v>132</v>
+        <v>308</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>130</v>
+        <v>306</v>
       </c>
       <c r="B94" t="s">
-        <v>133</v>
+        <v>309</v>
       </c>
       <c r="C94" t="s">
-        <v>134</v>
+        <v>310</v>
       </c>
       <c r="D94" t="s">
-        <v>135</v>
+        <v>311</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>130</v>
+        <v>306</v>
       </c>
       <c r="B95" t="s">
-        <v>136</v>
+        <v>312</v>
       </c>
       <c r="C95" t="s">
-        <v>137</v>
+        <v>313</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>130</v>
+        <v>306</v>
       </c>
       <c r="B96" t="s">
-        <v>138</v>
+        <v>314</v>
       </c>
       <c r="C96" t="s">
-        <v>139</v>
+        <v>315</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>130</v>
+        <v>306</v>
       </c>
       <c r="B97" t="s">
-        <v>140</v>
+        <v>316</v>
       </c>
       <c r="C97" t="s">
-        <v>141</v>
+        <v>317</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>142</v>
+        <v>318</v>
       </c>
       <c r="B98" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="C98" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>142</v>
+        <v>318</v>
       </c>
       <c r="B99" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="C99" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>142</v>
+        <v>318</v>
       </c>
       <c r="B100" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="C100" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>142</v>
+        <v>318</v>
       </c>
       <c r="B101" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="C101" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>142</v>
+        <v>318</v>
       </c>
       <c r="B102" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="C102" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="D102" t="s">
-        <v>75</v>
+        <v>251</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>142</v>
+        <v>318</v>
       </c>
       <c r="B103" t="s">
-        <v>76</v>
+        <v>252</v>
       </c>
       <c r="C103" t="s">
-        <v>77</v>
+        <v>253</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>142</v>
+        <v>318</v>
       </c>
       <c r="B104" t="s">
-        <v>78</v>
+        <v>254</v>
       </c>
       <c r="C104" t="s">
-        <v>79</v>
+        <v>255</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>142</v>
+        <v>318</v>
       </c>
       <c r="B105" t="s">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="C105" t="s">
-        <v>81</v>
+        <v>257</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>142</v>
+        <v>318</v>
       </c>
       <c r="B106" t="s">
-        <v>82</v>
+        <v>258</v>
       </c>
       <c r="C106" t="s">
-        <v>83</v>
+        <v>259</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>86</v>
+        <v>262</v>
       </c>
       <c r="B107" t="s">
-        <v>84</v>
+        <v>260</v>
       </c>
       <c r="C107" t="s">
-        <v>85</v>
+        <v>261</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>86</v>
+        <v>262</v>
       </c>
       <c r="B108" t="s">
-        <v>87</v>
+        <v>263</v>
       </c>
       <c r="C108" t="s">
-        <v>88</v>
+        <v>264</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>86</v>
+        <v>262</v>
       </c>
       <c r="B109" t="s">
-        <v>89</v>
+        <v>265</v>
       </c>
       <c r="C109" t="s">
-        <v>90</v>
+        <v>266</v>
       </c>
       <c r="D109" t="s">
-        <v>91</v>
+        <v>267</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>86</v>
+        <v>262</v>
       </c>
       <c r="B110" t="s">
-        <v>92</v>
+        <v>268</v>
       </c>
       <c r="C110" t="s">
-        <v>93</v>
+        <v>269</v>
       </c>
       <c r="D110" t="s">
-        <v>94</v>
+        <v>270</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>86</v>
+        <v>262</v>
       </c>
       <c r="B111" t="s">
-        <v>95</v>
+        <v>271</v>
       </c>
       <c r="C111" t="s">
-        <v>96</v>
+        <v>272</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>86</v>
+        <v>262</v>
       </c>
       <c r="B112" t="s">
-        <v>97</v>
+        <v>273</v>
       </c>
       <c r="C112" t="s">
-        <v>98</v>
+        <v>274</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>86</v>
+        <v>262</v>
       </c>
       <c r="B113" t="s">
-        <v>99</v>
+        <v>275</v>
       </c>
       <c r="C113" t="s">
-        <v>100</v>
+        <v>276</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>86</v>
+        <v>262</v>
       </c>
       <c r="B114" t="s">
-        <v>101</v>
+        <v>277</v>
       </c>
       <c r="C114" t="s">
-        <v>102</v>
+        <v>278</v>
       </c>
       <c r="D114" t="s">
-        <v>103</v>
+        <v>279</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>86</v>
+        <v>262</v>
       </c>
       <c r="B115" t="s">
-        <v>104</v>
+        <v>280</v>
       </c>
       <c r="C115" t="s">
-        <v>105</v>
+        <v>281</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>86</v>
+        <v>262</v>
       </c>
       <c r="B116" t="s">
-        <v>106</v>
+        <v>282</v>
       </c>
       <c r="C116" t="s">
-        <v>107</v>
+        <v>283</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>86</v>
+        <v>262</v>
       </c>
       <c r="B117" t="s">
-        <v>108</v>
+        <v>284</v>
       </c>
       <c r="C117" t="s">
-        <v>39</v>
+        <v>359</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>42</v>
+        <v>362</v>
       </c>
       <c r="B118" t="s">
-        <v>43</v>
+        <v>363</v>
       </c>
       <c r="C118" t="s">
-        <v>44</v>
+        <v>364</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>42</v>
+        <v>362</v>
       </c>
       <c r="B119" t="s">
-        <v>45</v>
+        <v>365</v>
       </c>
       <c r="C119" t="s">
-        <v>46</v>
+        <v>366</v>
       </c>
       <c r="D119" t="s">
-        <v>47</v>
+        <v>367</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>42</v>
+        <v>362</v>
       </c>
       <c r="B120" t="s">
-        <v>48</v>
+        <v>368</v>
       </c>
       <c r="C120" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>42</v>
+        <v>362</v>
       </c>
       <c r="B121" t="s">
-        <v>50</v>
+        <v>370</v>
       </c>
       <c r="C121" t="s">
-        <v>51</v>
+        <v>371</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>42</v>
+        <v>362</v>
       </c>
       <c r="B122" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="C122" t="s">
-        <v>52</v>
+        <v>372</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>53</v>
+        <v>373</v>
       </c>
       <c r="B123" t="s">
-        <v>55</v>
+        <v>375</v>
       </c>
       <c r="C123" t="s">
-        <v>54</v>
+        <v>374</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>53</v>
+        <v>373</v>
       </c>
       <c r="B124" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="C124" t="s">
-        <v>56</v>
+        <v>376</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>53</v>
+        <v>373</v>
       </c>
       <c r="B125" t="s">
-        <v>57</v>
+        <v>377</v>
       </c>
       <c r="C125" t="s">
-        <v>58</v>
+        <v>378</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>53</v>
+        <v>373</v>
       </c>
       <c r="B126" t="s">
-        <v>59</v>
+        <v>379</v>
       </c>
       <c r="C126" t="s">
-        <v>60</v>
+        <v>380</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>53</v>
+        <v>373</v>
       </c>
       <c r="B127" t="s">
-        <v>61</v>
+        <v>381</v>
       </c>
       <c r="C127" t="s">
-        <v>62</v>
+        <v>382</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>63</v>
+        <v>383</v>
       </c>
       <c r="B128" t="s">
-        <v>64</v>
+        <v>384</v>
       </c>
       <c r="C128" t="s">
-        <v>65</v>
+        <v>385</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>63</v>
+        <v>383</v>
       </c>
       <c r="B129" t="s">
-        <v>66</v>
+        <v>386</v>
       </c>
       <c r="C129" t="s">
-        <v>67</v>
+        <v>387</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>63</v>
+        <v>383</v>
       </c>
       <c r="B130" t="s">
-        <v>68</v>
+        <v>388</v>
       </c>
       <c r="C130" t="s">
-        <v>69</v>
+        <v>389</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>63</v>
+        <v>383</v>
       </c>
       <c r="B131" t="s">
-        <v>70</v>
+        <v>390</v>
       </c>
       <c r="C131" t="s">
-        <v>71</v>
+        <v>391</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>63</v>
+        <v>383</v>
       </c>
       <c r="B132" t="s">
-        <v>73</v>
+        <v>249</v>
       </c>
       <c r="C132" t="s">
-        <v>72</v>
+        <v>248</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="B133" t="s">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="C133" t="s">
-        <v>1</v>
+        <v>321</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="B134" t="s">
-        <v>2</v>
+        <v>322</v>
       </c>
       <c r="C134" t="s">
-        <v>3</v>
+        <v>323</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>325</v>
       </c>
       <c r="C135" t="s">
-        <v>4</v>
+        <v>324</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>326</v>
       </c>
       <c r="C136" t="s">
-        <v>7</v>
+        <v>327</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>328</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>329</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="B138" t="s">
-        <v>10</v>
+        <v>330</v>
       </c>
       <c r="C138" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="B139" t="s">
-        <v>12</v>
+        <v>332</v>
       </c>
       <c r="C139" t="s">
-        <v>13</v>
+        <v>333</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="B140" t="s">
-        <v>14</v>
+        <v>334</v>
       </c>
       <c r="C140" t="s">
-        <v>15</v>
+        <v>335</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>16</v>
+        <v>336</v>
       </c>
       <c r="B141" t="s">
-        <v>18</v>
+        <v>338</v>
       </c>
       <c r="C141" t="s">
-        <v>17</v>
+        <v>337</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>16</v>
+        <v>336</v>
       </c>
       <c r="B142" t="s">
-        <v>20</v>
+        <v>340</v>
       </c>
       <c r="C142" t="s">
-        <v>19</v>
+        <v>339</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>16</v>
+        <v>336</v>
       </c>
       <c r="B143" t="s">
-        <v>21</v>
+        <v>341</v>
       </c>
       <c r="C143" t="s">
-        <v>22</v>
+        <v>342</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>23</v>
+        <v>343</v>
       </c>
       <c r="B144" t="s">
-        <v>24</v>
+        <v>344</v>
       </c>
       <c r="C144" t="s">
-        <v>25</v>
+        <v>345</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>23</v>
+        <v>343</v>
       </c>
       <c r="B145" t="s">
-        <v>26</v>
+        <v>346</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>347</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>28</v>
+        <v>348</v>
       </c>
       <c r="B146" t="s">
-        <v>29</v>
+        <v>349</v>
       </c>
       <c r="C146" t="s">
-        <v>30</v>
+        <v>350</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>31</v>
+        <v>351</v>
       </c>
       <c r="B147" t="s">
-        <v>32</v>
+        <v>352</v>
       </c>
       <c r="C147" t="s">
-        <v>33</v>
+        <v>353</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>31</v>
+        <v>351</v>
       </c>
       <c r="B148" t="s">
-        <v>34</v>
+        <v>354</v>
       </c>
       <c r="C148" t="s">
-        <v>35</v>
+        <v>355</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
+        <v>351</v>
+      </c>
+      <c r="B149" t="s">
+        <v>356</v>
+      </c>
+      <c r="C149" t="s">
+        <v>357</v>
+      </c>
+      <c r="D149" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>8</v>
+      </c>
+      <c r="B150" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>13</v>
+      </c>
+      <c r="B152" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>13</v>
+      </c>
+      <c r="B153" t="s">
+        <v>16</v>
+      </c>
+      <c r="C153" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>13</v>
+      </c>
+      <c r="B154" t="s">
+        <v>18</v>
+      </c>
+      <c r="C154" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>13</v>
+      </c>
+      <c r="B155" t="s">
+        <v>20</v>
+      </c>
+      <c r="C155" t="s">
+        <v>21</v>
+      </c>
+      <c r="D155" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>13</v>
+      </c>
+      <c r="B156" t="s">
+        <v>23</v>
+      </c>
+      <c r="C156" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>13</v>
+      </c>
+      <c r="B157" t="s">
+        <v>25</v>
+      </c>
+      <c r="C157" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>13</v>
+      </c>
+      <c r="B158" t="s">
+        <v>27</v>
+      </c>
+      <c r="C158" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>13</v>
+      </c>
+      <c r="B159" t="s">
+        <v>29</v>
+      </c>
+      <c r="C159" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
         <v>31</v>
       </c>
-      <c r="B149" t="s">
-        <v>36</v>
-      </c>
-      <c r="C149" t="s">
-        <v>37</v>
-      </c>
-      <c r="D149" t="s">
-        <v>38</v>
+      <c r="B160" t="s">
+        <v>33</v>
+      </c>
+      <c r="C160" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>31</v>
+      </c>
+      <c r="B161" t="s">
+        <v>34</v>
+      </c>
+      <c r="C161" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <autoFilter ref="A1:D27"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -3643,86 +3891,85 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>244</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>245</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>249</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>250</v>
+        <v>152</v>
       </c>
       <c r="B5" t="s">
-        <v>251</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s">
-        <v>196</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="B7" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="B8" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="B9" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="B10" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/xword_clue_lookup.xlsx
+++ b/xword_clue_lookup.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="-20" windowWidth="24040" windowHeight="17220" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="18980" yWindow="6800" windowWidth="24040" windowHeight="9640" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="1" r:id="rId1"/>
     <sheet name="Clues" sheetId="2" r:id="rId2"/>
     <sheet name="Muses" sheetId="3" r:id="rId3"/>
+    <sheet name="Stats" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Clues!$A$1:$D$27</definedName>
@@ -24,7 +25,1649 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="487">
+  <si>
+    <t>Uris's "_____ Pass"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SABENA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belgian airline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NIFTY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ingenious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARISEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marinaro and others</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIRE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slough</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPINE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reckon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANTINOMIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In opposition to one another</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Melmackian of TV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YENNED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Craved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RILEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Little Orphan Annie" poet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRENE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goodnight girl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOLA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Southeast Kansas town</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jerry Herman composition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIETA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Michelangeo masterpiece</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STIRS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hoosegows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SERF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Esne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Online</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MACED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clubbed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enlai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RICER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potato preparer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHOU_____</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEHR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baseball union boss David</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EROSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gnawed away</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lawyers' Degrees</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Composition closure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solar disk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENGENDER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Produce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMPUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It fugits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OMEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Augury</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ilsa of "Casablanca"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VERY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jolly, to the British</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heraldic band</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUREAU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chiffonier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ILLUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card Catalogue Abbr.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OMOO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Melville novel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>One of the Bobbsey twins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MITLA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fragrant compound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The NYT Crosswords for Two</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Will Shortz, ed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2].27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BELIE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prove false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORIEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bay window</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a projection from the wall of a building, typically supported from the ground or by corbels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RUR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Karel Capek drama</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DESTRY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"_____ Rides Again" (1939 western)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Film composer Schifrin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2].28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speaks, informally</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hagar the Horrible's wife</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REDCAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baggage porter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRIODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Certain vacuum tube</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FALDERAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nonsense: Var</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2].29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOPAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lacking face value, as stock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slightly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LENAOLIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Chocolat" actress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prince ___ Khan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solve Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Publication Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day of Week</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Online</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOLI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>By oneself: prefix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dawn goddess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Online</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIMEE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actress Anouk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOPOMYTHUMB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Small Persion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HACEK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The mark on the C in Capek </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNSTRUNG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discomposed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAMBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poetic feet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Staff leader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FARO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gambler's game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hope of Hollywood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1].220</t>
+  </si>
+  <si>
+    <t>ANKA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paul who sang "Having my baby"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>___ end (very last part)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARGYLL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Historic county of Scotland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1].221</t>
+  </si>
+  <si>
+    <t>NONO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taboo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buttonhole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEGATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emissary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMPEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Egg on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1].222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Likely</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAFES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeggs' targets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yegg = a burglar or safecracker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ILSA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rick's love in Casablanca</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Antiques Roadshow" shower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMBODIES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Personifies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1].223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWAMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OISE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>River to the Seine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADALI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Onetime Illinois Governor Stevenson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Like Marcel Duchamp's "Mona Lisa"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOATEED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EELS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perfume from petals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Radical 60's grp.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15-percenter: Abbr.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELYS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tarzan player Ron and others</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2].31</t>
+  </si>
+  <si>
+    <t>Furrier John Jacob _____</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASTOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grassy plain of South America</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLANO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patricia ____, Best Actress for "Hud"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2].32</t>
+  </si>
+  <si>
+    <t>TORERO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Caped figther</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORLON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acrylic fiber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2].33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LISLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fine thread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2].34</t>
+  </si>
+  <si>
+    <t>ANNA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"The King and I" heroine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GWEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verdon of Broadway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poetic adverb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soon; shortly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Writer Bagnold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Put a wing (on)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LORN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Foresaken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Firpo of the ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TORIAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character actor George</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOTTE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Singer Lenya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G-CLEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Province: Muse of dance; Attribute: Lyre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Erato</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Province: Muse of erotic poetry; Attribute: Smaller lyre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polyhymnia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Province: Muse of sacred song; Attribute: Depicted veiled and pensive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Urania</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Province: Muse of astronomy; Attribute: Celestial globe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thalia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Province: Muse of comedy and bucolic poetry; Attribute: Comic mask, ivy wreath, shepherd's staff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Muse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attributes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1].215</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>They're kept in cabinets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORONO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University town near Bangor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period of a renter's lease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TENANCY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2].30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A play.  The basic premise involves an Irish Catholic girl and a young Jewish man who marry despite the objections of their families.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VENAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open to bribery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAELS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scottish Highlanders</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAKAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capital of Senegal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TREE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logic diagram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAUB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coat, as with plaster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1].224</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAGA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indian music</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMBIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Circumference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The scope, extent, or bounds of something</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NABOB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nattering type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defined as "a Muslim official or governor under the Mogul empire"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RENE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Levesque of Quebec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRACE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>American-born princess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work on a doily</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hooey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Something regarded as absurd; nonsense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Province: Muse of Epic Song; Attribute: Wax Tablet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Euterpe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Province: Muse of lyric song; Attribute: Double flute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Melpomene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Province: Muse of tragedy; Attribute: Tragic mask, ivy wreath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Terpsichore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>German river to the North Sea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meyers of "Kate &amp; Allie"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Front of a sheet of paper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cartoonist Peter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>River in England</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1].212</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VERSOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Left-hand pages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Formerly, once</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARTE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comic Johnson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arabian sultantate; Mideast sultantate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEYS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Old Tunisian Rules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USE NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>______ hooks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TONG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chinese secret society</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABEAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90 Degrees from fore-and-aft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Will-'-the-wisp locale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HELGA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andrew Wyeth's "____ Pictures"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CULT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heaven's Gate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANKH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good luck symbol for King Tut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABIE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Irish Rose's Guy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Before</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1].217</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LALO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Composer Schifrin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actress Lena</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cinematographer Nykvist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Harvest goddess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BELLI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attorney Melvin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spoon-bender Geller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Political cartoonist Thomas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TITO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maverick Yugoslav leader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ODER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>German border river</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RANDI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Amazing" magician</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ryan's "Love Story" co-star</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOLA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Singer Falana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art deco notable; Art deco artist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Composer Thomas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID EST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That is</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Newswoman Sherr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Based on the legend of the Pied Piper of Hamelin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1].211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELKE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Author</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Will Shortz, ed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The NYT Supersized Book of Easy Crosswords: 500 Puzzles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1].207</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OMAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>South American plains</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jerk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OBOE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Relative of the heckelphone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OONA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mrs. Chaplin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAMPOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COCAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drug yielding planrs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHLEMIEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHMO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sad sack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INGA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actress Swenson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDHS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Old english letters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1].208</t>
+  </si>
+  <si>
+    <t>ERTE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hamelin critter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOPI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pueblo dwellers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLOC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conservatives or liberals, say, in the Senate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KNELL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ring slowly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENURE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accustom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOUR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forbidding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RABE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Playwright David</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Always, to a poet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MELBA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tony-winner Moore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bulrush, e.g.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Another term for cattail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEERSHEBA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Southernmost city of ancient Palestine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERATO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A muse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPERA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Lohengrin", e.g.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start of North Carolina's motto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Esse quam videri is a Latin phrase meaning "To be, rather than to seem (to be)"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JIVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jazz lingo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DUANE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>One of the Allman Brothers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calliope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Province: Muse of history; Attribute: Scroll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>Playwright Burrows</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -317,1268 +1960,6 @@
   </si>
   <si>
     <t>ARNE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Composer Thomas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID EST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>That is</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYNN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Newswoman Sherr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Based on the legend of the Pied Piper of Hamelin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1].211</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ELKE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Author</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Will Shortz, ed.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The NYT Supersized Book of Easy Crosswords: 500 Puzzles</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1].207</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OMAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>South American plains</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jerk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OBOE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Relative of the heckelphone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OONA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mrs. Chaplin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAMPOS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COCAS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Drug yielding planrs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHLEMIEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHMO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sad sack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INGA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actress Swenson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EDHS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Old english letters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Answer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1].208</t>
-  </si>
-  <si>
-    <t>ERTE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hamelin critter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HOPI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pueblo dwellers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BLOC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Conservatives or liberals, say, in the Senate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KNELL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ring slowly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENURE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Accustom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DOUR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Forbidding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RABE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Playwright David</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Always, to a poet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MELBA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tony-winner Moore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bulrush, e.g.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Another term for cattail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BEERSHEBA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Southernmost city of ancient Palestine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERATO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A muse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPERA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Lohengrin", e.g.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ESSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Start of North Carolina's motto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Esse quam videri is a Latin phrase meaning "To be, rather than to seem (to be)"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JIVE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jazz lingo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DUANE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>One of the Allman Brothers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Calliope</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Province: Muse of history; Attribute: Scroll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Province: Muse of Epic Song; Attribute: Wax Tablet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Euterpe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Province: Muse of lyric song; Attribute: Double flute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Melpomene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Province: Muse of tragedy; Attribute: Tragic mask, ivy wreath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Terpsichore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>German river to the North Sea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Meyers of "Kate &amp; Allie"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RECTO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Front of a sheet of paper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARNO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cartoonist Peter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OUSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>River in England</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1].212</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VERSOS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Left-hand pages</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Formerly, once</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARTE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comic Johnson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arabian sultantate; Mideast sultantate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEYS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Old Tunisian Rules</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USE NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>______ hooks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TONG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chinese secret society</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABEAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90 Degrees from fore-and-aft</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Will-'-the-wisp locale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HELGA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Andrew Wyeth's "____ Pictures"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CULT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heaven's Gate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANKH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Good luck symbol for King Tut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABIE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Irish Rose's Guy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Before</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1].217</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LALO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Composer Schifrin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OLIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actress Lena</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SVEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cinematographer Nykvist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Harvest goddess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BELLI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attorney Melvin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spoon-bender Geller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Political cartoonist Thomas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TITO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maverick Yugoslav leader</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ODER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>German border river</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RANDI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Amazing" magician</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ryan's "Love Story" co-star</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOLA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Singer Falana</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Art deco notable; Art deco artist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Writer Bagnold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Put a wing (on)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LORN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Foresaken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LUIS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Firpo of the ring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TORIAS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character actor George</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOTTE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Singer Lenya</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G-CLEF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Province: Muse of dance; Attribute: Lyre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Erato</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Province: Muse of erotic poetry; Attribute: Smaller lyre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Polyhymnia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Province: Muse of sacred song; Attribute: Depicted veiled and pensive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Urania</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Province: Muse of astronomy; Attribute: Celestial globe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thalia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Province: Muse of comedy and bucolic poetry; Attribute: Comic mask, ivy wreath, shepherd's staff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Muse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attributes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1].215</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>They're kept in cabinets</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FILES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORONO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University town near Bangor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period of a renter's lease</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TENANCY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2].30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A play.  The basic premise involves an Irish Catholic girl and a young Jewish man who marry despite the objections of their families.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VENAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open to bribery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAELS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scottish Highlanders</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAKAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Capital of Senegal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TREE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Logic diagram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAUB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coat, as with plaster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1].224</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RAGA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Indian music</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AMBIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Circumference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The scope, extent, or bounds of something</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NABOB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nattering type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Defined as "a Muslim official or governor under the Mogul empire"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RENE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Levesque of Quebec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRACE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>American-born princess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Work on a doily</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOSH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hooey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Something regarded as absurd; nonsense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNSTRUNG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Discomposed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IAMBS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poetic feet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ESTER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Staff leader</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FARO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gambler's game</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LANGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hope of Hollywood</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1].220</t>
-  </si>
-  <si>
-    <t>ANKA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Paul who sang "Having my baby"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>___ end (very last part)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARGYLL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Historic county of Scotland</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1].221</t>
-  </si>
-  <si>
-    <t>NONO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taboo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buttonhole</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEGATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Emissary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IMPEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Egg on</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1].222</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Likely</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SAFES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yeggs' targets</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yegg = a burglar or safecracker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ILSA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rick's love in Casablanca</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PBS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Antiques Roadshow" shower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMBODIES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Personifies</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1].223</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SWAMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OISE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>River to the Seine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADALI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Onetime Illinois Governor Stevenson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Like Marcel Duchamp's "Mona Lisa"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOATEED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EELS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Congers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATTAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Perfume from petals</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Radical 60's grp.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15-percenter: Abbr.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ELYS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tarzan player Ron and others</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2].31</t>
-  </si>
-  <si>
-    <t>Furrier John Jacob _____</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASTOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grassy plain of South America</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LLANO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Patricia ____, Best Actress for "Hud"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2].32</t>
-  </si>
-  <si>
-    <t>TORERO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Caped figther</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORLON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Acrylic fiber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2].33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LISLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fine thread</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2].34</t>
-  </si>
-  <si>
-    <t>ANNA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"The King and I" heroine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GWEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Verdon of Broadway</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poetic adverb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soon; shortly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fragrant compound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The NYT Crosswords for Two</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Will Shortz, ed.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2].27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BELIE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prove false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORIEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bay window</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a projection from the wall of a building, typically supported from the ground or by corbels</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RUR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Karel Capek drama</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DESTRY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"_____ Rides Again" (1939 western)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Film composer Schifrin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2].28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Speaks, informally</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SEZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hagar the Horrible's wife</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REDCAP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Baggage porter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRIODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Certain vacuum tube</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FALDERAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nonsense: Var</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2].29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOPAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lacking face value, as stock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATAD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slightly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LENAOLIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Chocolat" actress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prince ___ Khan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1586,6 +1967,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -1627,10 +2014,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1974,13 +2364,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>346</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>347</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1988,10 +2378,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>350</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1999,10 +2389,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>360</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>361</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2023,10 +2413,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:D163"/>
+  <dimension ref="A1:D205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="A162" sqref="A162"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="B206" sqref="B206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2039,1828 +2429,2240 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>369</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>370</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>371</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>351</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>352</v>
       </c>
       <c r="C2" t="s">
-        <v>171</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>351</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>359</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>351</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>362</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>351</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>355</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>351</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>357</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>351</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>360</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>351</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>363</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>351</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>351</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>367</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>372</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>373</v>
       </c>
       <c r="C11" t="s">
-        <v>218</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>372</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>374</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>112</v>
+        <v>375</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>372</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>376</v>
       </c>
       <c r="C13" t="s">
-        <v>0</v>
+        <v>412</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>372</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>413</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>372</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>415</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>416</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>372</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>417</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>372</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>419</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>372</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>458</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>372</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>460</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>372</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>462</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>372</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>464</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>465</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>466</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>467</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>468</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>466</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>469</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>470</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>466</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>471</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>472</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>466</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>473</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>481</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>475</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>481</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>477</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>478</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>479</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>481</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>482</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>483</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>481</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>484</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>485</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>481</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>486</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>481</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>339</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>481</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>341</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>342</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>344</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>345</v>
       </c>
       <c r="C33" t="s">
-        <v>155</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>344</v>
       </c>
       <c r="B34" t="s">
-        <v>156</v>
+        <v>275</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>344</v>
       </c>
       <c r="B35" t="s">
-        <v>158</v>
+        <v>277</v>
       </c>
       <c r="C35" t="s">
-        <v>159</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>344</v>
       </c>
       <c r="B36" t="s">
-        <v>160</v>
+        <v>279</v>
       </c>
       <c r="C36" t="s">
-        <v>161</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>344</v>
       </c>
       <c r="B37" t="s">
-        <v>162</v>
+        <v>281</v>
       </c>
       <c r="C37" t="s">
-        <v>163</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>164</v>
+        <v>283</v>
       </c>
       <c r="B38" t="s">
-        <v>165</v>
+        <v>284</v>
       </c>
       <c r="C38" t="s">
-        <v>167</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>164</v>
+        <v>283</v>
       </c>
       <c r="B39" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="C39" t="s">
-        <v>170</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>164</v>
+        <v>283</v>
       </c>
       <c r="B40" t="s">
-        <v>172</v>
+        <v>291</v>
       </c>
       <c r="C40" t="s">
-        <v>173</v>
+        <v>292</v>
       </c>
       <c r="D40" t="s">
-        <v>37</v>
+        <v>449</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>164</v>
+        <v>283</v>
       </c>
       <c r="B41" t="s">
-        <v>174</v>
+        <v>293</v>
       </c>
       <c r="C41" t="s">
-        <v>175</v>
+        <v>294</v>
       </c>
       <c r="D41" t="s">
-        <v>36</v>
+        <v>448</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>164</v>
+        <v>283</v>
       </c>
       <c r="B42" t="s">
-        <v>166</v>
+        <v>285</v>
       </c>
       <c r="C42" t="s">
-        <v>168</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>164</v>
+        <v>283</v>
       </c>
       <c r="B43" t="s">
-        <v>176</v>
+        <v>295</v>
       </c>
       <c r="C43" t="s">
-        <v>177</v>
+        <v>296</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>164</v>
+        <v>283</v>
       </c>
       <c r="B44" t="s">
-        <v>178</v>
+        <v>297</v>
       </c>
       <c r="C44" t="s">
-        <v>179</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>450</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>455</v>
       </c>
       <c r="C45" t="s">
-        <v>44</v>
+        <v>456</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>450</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>391</v>
       </c>
       <c r="C46" t="s">
-        <v>129</v>
+        <v>392</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>450</v>
       </c>
       <c r="B47" t="s">
-        <v>130</v>
+        <v>393</v>
       </c>
       <c r="C47" t="s">
-        <v>131</v>
+        <v>394</v>
       </c>
       <c r="D47" t="s">
-        <v>132</v>
+        <v>395</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>450</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>396</v>
       </c>
       <c r="C48" t="s">
-        <v>134</v>
+        <v>397</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>450</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
+        <v>398</v>
       </c>
       <c r="C49" t="s">
-        <v>136</v>
+        <v>399</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>38</v>
+        <v>450</v>
       </c>
       <c r="B50" t="s">
-        <v>137</v>
+        <v>400</v>
       </c>
       <c r="C50" t="s">
-        <v>138</v>
+        <v>401</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>38</v>
+        <v>450</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>402</v>
       </c>
       <c r="C51" t="s">
-        <v>140</v>
+        <v>403</v>
       </c>
       <c r="D51" t="s">
-        <v>141</v>
+        <v>404</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>39</v>
+        <v>451</v>
       </c>
       <c r="B52" t="s">
-        <v>142</v>
+        <v>405</v>
       </c>
       <c r="C52" t="s">
-        <v>143</v>
+        <v>406</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>39</v>
+        <v>451</v>
       </c>
       <c r="B53" t="s">
-        <v>144</v>
+        <v>407</v>
       </c>
       <c r="C53" t="s">
-        <v>145</v>
+        <v>408</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B54" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C54" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B55" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C55" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
+        <v>377</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>378</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B57" t="s">
-        <v>116</v>
+        <v>379</v>
       </c>
       <c r="C57" t="s">
-        <v>117</v>
+        <v>380</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>381</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
+        <v>382</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B59" t="s">
-        <v>120</v>
+        <v>383</v>
       </c>
       <c r="C59" t="s">
-        <v>121</v>
+        <v>384</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>385</v>
       </c>
       <c r="C60" t="s">
-        <v>123</v>
+        <v>386</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>40</v>
+        <v>452</v>
       </c>
       <c r="B61" t="s">
-        <v>124</v>
+        <v>387</v>
       </c>
       <c r="C61" t="s">
-        <v>125</v>
+        <v>388</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>40</v>
+        <v>452</v>
       </c>
       <c r="B62" t="s">
-        <v>126</v>
+        <v>389</v>
       </c>
       <c r="C62" t="s">
-        <v>127</v>
+        <v>390</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>40</v>
+        <v>452</v>
       </c>
       <c r="B63" t="s">
-        <v>189</v>
+        <v>308</v>
       </c>
       <c r="C63" t="s">
-        <v>190</v>
+        <v>309</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>40</v>
+        <v>452</v>
       </c>
       <c r="B64" t="s">
-        <v>191</v>
+        <v>310</v>
       </c>
       <c r="C64" t="s">
-        <v>192</v>
+        <v>311</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="B65" t="s">
-        <v>194</v>
+        <v>313</v>
       </c>
       <c r="C65" t="s">
-        <v>195</v>
+        <v>314</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="B66" t="s">
-        <v>196</v>
+        <v>315</v>
       </c>
       <c r="C66" t="s">
-        <v>197</v>
+        <v>316</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="B67" t="s">
-        <v>198</v>
+        <v>317</v>
       </c>
       <c r="C67" t="s">
-        <v>199</v>
+        <v>318</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="B68" t="s">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="C68" t="s">
-        <v>201</v>
+        <v>320</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="B69" t="s">
-        <v>202</v>
+        <v>321</v>
       </c>
       <c r="C69" t="s">
-        <v>203</v>
+        <v>322</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="B70" t="s">
-        <v>204</v>
+        <v>323</v>
       </c>
       <c r="C70" t="s">
-        <v>205</v>
+        <v>324</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="B71" t="s">
-        <v>206</v>
+        <v>325</v>
       </c>
       <c r="C71" t="s">
-        <v>207</v>
+        <v>326</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="B72" t="s">
-        <v>208</v>
+        <v>327</v>
       </c>
       <c r="C72" t="s">
-        <v>209</v>
+        <v>328</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="B73" t="s">
-        <v>210</v>
+        <v>329</v>
       </c>
       <c r="C73" t="s">
-        <v>211</v>
+        <v>330</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>41</v>
+        <v>453</v>
       </c>
       <c r="B74" t="s">
-        <v>212</v>
+        <v>331</v>
       </c>
       <c r="C74" t="s">
-        <v>213</v>
+        <v>332</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>41</v>
+        <v>453</v>
       </c>
       <c r="B75" t="s">
-        <v>214</v>
+        <v>333</v>
       </c>
       <c r="C75" t="s">
-        <v>215</v>
+        <v>334</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>41</v>
+        <v>453</v>
       </c>
       <c r="B76" t="s">
-        <v>216</v>
+        <v>335</v>
       </c>
       <c r="C76" t="s">
-        <v>217</v>
+        <v>336</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>41</v>
+        <v>453</v>
       </c>
       <c r="B77" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C77" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>41</v>
+        <v>453</v>
       </c>
       <c r="B78" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C78" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>42</v>
+        <v>454</v>
       </c>
       <c r="B79" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C79" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>42</v>
+        <v>454</v>
       </c>
       <c r="B80" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C80" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>42</v>
+        <v>454</v>
       </c>
       <c r="B81" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C81" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>42</v>
+        <v>454</v>
       </c>
       <c r="B82" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C82" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>42</v>
+        <v>454</v>
       </c>
       <c r="B83" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C83" t="s">
-        <v>285</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>42</v>
+        <v>454</v>
       </c>
       <c r="B84" t="s">
-        <v>286</v>
+        <v>134</v>
       </c>
       <c r="C84" t="s">
-        <v>287</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>42</v>
+        <v>454</v>
       </c>
       <c r="B85" t="s">
-        <v>288</v>
+        <v>136</v>
       </c>
       <c r="C85" t="s">
-        <v>289</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>290</v>
+        <v>138</v>
       </c>
       <c r="B86" t="s">
-        <v>291</v>
+        <v>139</v>
       </c>
       <c r="C86" t="s">
-        <v>292</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>290</v>
+        <v>138</v>
       </c>
       <c r="B87" t="s">
-        <v>293</v>
+        <v>141</v>
       </c>
       <c r="C87" t="s">
-        <v>294</v>
+        <v>142</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>290</v>
+        <v>138</v>
       </c>
       <c r="B88" t="s">
-        <v>295</v>
+        <v>143</v>
       </c>
       <c r="C88" t="s">
-        <v>296</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>297</v>
+        <v>145</v>
       </c>
       <c r="B89" t="s">
-        <v>298</v>
+        <v>146</v>
       </c>
       <c r="C89" t="s">
-        <v>299</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>297</v>
+        <v>145</v>
       </c>
       <c r="B90" t="s">
-        <v>300</v>
+        <v>148</v>
       </c>
       <c r="C90" t="s">
-        <v>301</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>297</v>
+        <v>145</v>
       </c>
       <c r="B91" t="s">
-        <v>302</v>
+        <v>150</v>
       </c>
       <c r="C91" t="s">
-        <v>303</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>297</v>
+        <v>145</v>
       </c>
       <c r="B92" t="s">
-        <v>304</v>
+        <v>152</v>
       </c>
       <c r="C92" t="s">
-        <v>305</v>
+        <v>153</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>306</v>
+        <v>154</v>
       </c>
       <c r="B93" t="s">
-        <v>307</v>
+        <v>155</v>
       </c>
       <c r="C93" t="s">
-        <v>308</v>
+        <v>156</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>306</v>
+        <v>154</v>
       </c>
       <c r="B94" t="s">
-        <v>309</v>
+        <v>157</v>
       </c>
       <c r="C94" t="s">
-        <v>310</v>
+        <v>158</v>
       </c>
       <c r="D94" t="s">
-        <v>311</v>
+        <v>159</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>306</v>
+        <v>154</v>
       </c>
       <c r="B95" t="s">
-        <v>312</v>
+        <v>160</v>
       </c>
       <c r="C95" t="s">
-        <v>313</v>
+        <v>161</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>306</v>
+        <v>154</v>
       </c>
       <c r="B96" t="s">
-        <v>314</v>
+        <v>162</v>
       </c>
       <c r="C96" t="s">
-        <v>315</v>
+        <v>163</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>306</v>
+        <v>154</v>
       </c>
       <c r="B97" t="s">
-        <v>316</v>
+        <v>164</v>
       </c>
       <c r="C97" t="s">
-        <v>317</v>
+        <v>165</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>318</v>
+        <v>166</v>
       </c>
       <c r="B98" t="s">
-        <v>319</v>
+        <v>167</v>
       </c>
       <c r="C98" t="s">
-        <v>180</v>
+        <v>299</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>318</v>
+        <v>166</v>
       </c>
       <c r="B99" t="s">
-        <v>181</v>
+        <v>300</v>
       </c>
       <c r="C99" t="s">
-        <v>182</v>
+        <v>301</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>318</v>
+        <v>166</v>
       </c>
       <c r="B100" t="s">
-        <v>183</v>
+        <v>302</v>
       </c>
       <c r="C100" t="s">
-        <v>184</v>
+        <v>303</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>318</v>
+        <v>166</v>
       </c>
       <c r="B101" t="s">
-        <v>185</v>
+        <v>304</v>
       </c>
       <c r="C101" t="s">
-        <v>186</v>
+        <v>305</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>318</v>
+        <v>166</v>
       </c>
       <c r="B102" t="s">
-        <v>187</v>
+        <v>306</v>
       </c>
       <c r="C102" t="s">
-        <v>188</v>
+        <v>307</v>
       </c>
       <c r="D102" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>318</v>
+        <v>166</v>
       </c>
       <c r="B103" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C103" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>318</v>
+        <v>166</v>
       </c>
       <c r="B104" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C104" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>318</v>
+        <v>166</v>
       </c>
       <c r="B105" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C105" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>318</v>
+        <v>166</v>
       </c>
       <c r="B106" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C106" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B107" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C107" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B108" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C108" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B109" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C109" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="D109" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B110" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C110" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D110" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B111" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C111" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
+        <v>250</v>
+      </c>
+      <c r="B112" t="s">
+        <v>261</v>
+      </c>
+      <c r="C112" t="s">
         <v>262</v>
-      </c>
-      <c r="B112" t="s">
-        <v>273</v>
-      </c>
-      <c r="C112" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B113" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C113" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B114" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="C114" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="D114" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B115" t="s">
-        <v>280</v>
+        <v>128</v>
       </c>
       <c r="C115" t="s">
-        <v>281</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B116" t="s">
-        <v>282</v>
+        <v>130</v>
       </c>
       <c r="C116" t="s">
-        <v>283</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B117" t="s">
-        <v>284</v>
+        <v>132</v>
       </c>
       <c r="C117" t="s">
-        <v>359</v>
+        <v>74</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>362</v>
+        <v>77</v>
       </c>
       <c r="B118" t="s">
-        <v>363</v>
+        <v>78</v>
       </c>
       <c r="C118" t="s">
-        <v>364</v>
+        <v>79</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>362</v>
+        <v>77</v>
       </c>
       <c r="B119" t="s">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="C119" t="s">
-        <v>366</v>
+        <v>81</v>
       </c>
       <c r="D119" t="s">
-        <v>367</v>
+        <v>82</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>362</v>
+        <v>77</v>
       </c>
       <c r="B120" t="s">
-        <v>368</v>
+        <v>83</v>
       </c>
       <c r="C120" t="s">
-        <v>369</v>
+        <v>84</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>362</v>
+        <v>77</v>
       </c>
       <c r="B121" t="s">
-        <v>370</v>
+        <v>85</v>
       </c>
       <c r="C121" t="s">
-        <v>371</v>
+        <v>86</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>362</v>
+        <v>77</v>
       </c>
       <c r="B122" t="s">
-        <v>194</v>
+        <v>313</v>
       </c>
       <c r="C122" t="s">
-        <v>372</v>
+        <v>87</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>373</v>
+        <v>88</v>
       </c>
       <c r="B123" t="s">
-        <v>375</v>
+        <v>90</v>
       </c>
       <c r="C123" t="s">
-        <v>374</v>
+        <v>89</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>373</v>
+        <v>88</v>
       </c>
       <c r="B124" t="s">
-        <v>181</v>
+        <v>300</v>
       </c>
       <c r="C124" t="s">
-        <v>376</v>
+        <v>91</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>373</v>
+        <v>88</v>
       </c>
       <c r="B125" t="s">
-        <v>377</v>
+        <v>92</v>
       </c>
       <c r="C125" t="s">
-        <v>378</v>
+        <v>93</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>373</v>
+        <v>88</v>
       </c>
       <c r="B126" t="s">
-        <v>379</v>
+        <v>94</v>
       </c>
       <c r="C126" t="s">
-        <v>380</v>
+        <v>95</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>373</v>
+        <v>88</v>
       </c>
       <c r="B127" t="s">
-        <v>381</v>
+        <v>96</v>
       </c>
       <c r="C127" t="s">
-        <v>382</v>
+        <v>97</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>383</v>
+        <v>98</v>
       </c>
       <c r="B128" t="s">
-        <v>384</v>
+        <v>99</v>
       </c>
       <c r="C128" t="s">
-        <v>385</v>
+        <v>100</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>383</v>
+        <v>98</v>
       </c>
       <c r="B129" t="s">
-        <v>386</v>
+        <v>101</v>
       </c>
       <c r="C129" t="s">
-        <v>387</v>
+        <v>102</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>383</v>
+        <v>98</v>
       </c>
       <c r="B130" t="s">
-        <v>388</v>
+        <v>103</v>
       </c>
       <c r="C130" t="s">
-        <v>389</v>
+        <v>104</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>383</v>
+        <v>98</v>
       </c>
       <c r="B131" t="s">
-        <v>390</v>
+        <v>105</v>
       </c>
       <c r="C131" t="s">
-        <v>391</v>
+        <v>106</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>383</v>
+        <v>98</v>
       </c>
       <c r="B132" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C132" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B133" t="s">
-        <v>320</v>
+        <v>168</v>
       </c>
       <c r="C133" t="s">
-        <v>321</v>
+        <v>169</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B134" t="s">
-        <v>322</v>
+        <v>170</v>
       </c>
       <c r="C134" t="s">
-        <v>323</v>
+        <v>171</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B135" t="s">
-        <v>325</v>
+        <v>173</v>
       </c>
       <c r="C135" t="s">
-        <v>324</v>
+        <v>172</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B136" t="s">
-        <v>326</v>
+        <v>174</v>
       </c>
       <c r="C136" t="s">
-        <v>327</v>
+        <v>175</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B137" t="s">
-        <v>328</v>
+        <v>176</v>
       </c>
       <c r="C137" t="s">
-        <v>329</v>
+        <v>177</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B138" t="s">
-        <v>330</v>
+        <v>178</v>
       </c>
       <c r="C138" t="s">
-        <v>331</v>
+        <v>179</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B139" t="s">
-        <v>332</v>
+        <v>180</v>
       </c>
       <c r="C139" t="s">
-        <v>333</v>
+        <v>181</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B140" t="s">
-        <v>334</v>
+        <v>182</v>
       </c>
       <c r="C140" t="s">
-        <v>335</v>
+        <v>183</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>336</v>
+        <v>184</v>
       </c>
       <c r="B141" t="s">
-        <v>338</v>
+        <v>186</v>
       </c>
       <c r="C141" t="s">
-        <v>337</v>
+        <v>185</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>336</v>
+        <v>184</v>
       </c>
       <c r="B142" t="s">
-        <v>340</v>
+        <v>188</v>
       </c>
       <c r="C142" t="s">
-        <v>339</v>
+        <v>187</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>336</v>
+        <v>184</v>
       </c>
       <c r="B143" t="s">
-        <v>341</v>
+        <v>189</v>
       </c>
       <c r="C143" t="s">
-        <v>342</v>
+        <v>190</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>343</v>
+        <v>191</v>
       </c>
       <c r="B144" t="s">
-        <v>344</v>
+        <v>192</v>
       </c>
       <c r="C144" t="s">
-        <v>345</v>
+        <v>193</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>343</v>
+        <v>191</v>
       </c>
       <c r="B145" t="s">
-        <v>346</v>
+        <v>194</v>
       </c>
       <c r="C145" t="s">
-        <v>347</v>
+        <v>195</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>348</v>
+        <v>196</v>
       </c>
       <c r="B146" t="s">
-        <v>349</v>
+        <v>197</v>
       </c>
       <c r="C146" t="s">
-        <v>350</v>
+        <v>198</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>351</v>
+        <v>199</v>
       </c>
       <c r="B147" t="s">
-        <v>352</v>
+        <v>200</v>
       </c>
       <c r="C147" t="s">
-        <v>353</v>
+        <v>201</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>351</v>
+        <v>199</v>
       </c>
       <c r="B148" t="s">
-        <v>354</v>
+        <v>202</v>
       </c>
       <c r="C148" t="s">
-        <v>355</v>
+        <v>203</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>351</v>
+        <v>199</v>
       </c>
       <c r="B149" t="s">
-        <v>356</v>
+        <v>204</v>
       </c>
       <c r="C149" t="s">
-        <v>357</v>
+        <v>205</v>
       </c>
       <c r="D149" t="s">
-        <v>358</v>
+        <v>206</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>8</v>
+        <v>420</v>
       </c>
       <c r="B150" t="s">
-        <v>9</v>
+        <v>421</v>
       </c>
       <c r="C150" t="s">
-        <v>10</v>
+        <v>422</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>8</v>
+        <v>420</v>
       </c>
       <c r="B151" t="s">
-        <v>11</v>
+        <v>423</v>
       </c>
       <c r="C151" t="s">
-        <v>12</v>
+        <v>424</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>13</v>
+        <v>425</v>
       </c>
       <c r="B152" t="s">
-        <v>14</v>
+        <v>426</v>
       </c>
       <c r="C152" t="s">
-        <v>15</v>
+        <v>427</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>13</v>
+        <v>425</v>
       </c>
       <c r="B153" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C153" t="s">
-        <v>17</v>
+        <v>429</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>13</v>
+        <v>425</v>
       </c>
       <c r="B154" t="s">
-        <v>18</v>
+        <v>430</v>
       </c>
       <c r="C154" t="s">
-        <v>19</v>
+        <v>431</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>13</v>
+        <v>425</v>
       </c>
       <c r="B155" t="s">
-        <v>20</v>
+        <v>432</v>
       </c>
       <c r="C155" t="s">
-        <v>21</v>
+        <v>433</v>
       </c>
       <c r="D155" t="s">
-        <v>22</v>
+        <v>434</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>13</v>
+        <v>425</v>
       </c>
       <c r="B156" t="s">
-        <v>23</v>
+        <v>435</v>
       </c>
       <c r="C156" t="s">
-        <v>24</v>
+        <v>436</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>13</v>
+        <v>425</v>
       </c>
       <c r="B157" t="s">
-        <v>25</v>
+        <v>437</v>
       </c>
       <c r="C157" t="s">
-        <v>26</v>
+        <v>438</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>13</v>
+        <v>425</v>
       </c>
       <c r="B158" t="s">
-        <v>27</v>
+        <v>439</v>
       </c>
       <c r="C158" t="s">
-        <v>28</v>
+        <v>440</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>13</v>
+        <v>425</v>
       </c>
       <c r="B159" t="s">
-        <v>29</v>
+        <v>441</v>
       </c>
       <c r="C159" t="s">
-        <v>30</v>
+        <v>442</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
+        <v>443</v>
+      </c>
+      <c r="B160" t="s">
+        <v>445</v>
+      </c>
+      <c r="C160" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>443</v>
+      </c>
+      <c r="B161" t="s">
+        <v>446</v>
+      </c>
+      <c r="C161" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>114</v>
+      </c>
+      <c r="B165" t="s">
+        <v>115</v>
+      </c>
+      <c r="C165" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>114</v>
+      </c>
+      <c r="B166" t="s">
+        <v>117</v>
+      </c>
+      <c r="C166" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>114</v>
+      </c>
+      <c r="B167" t="s">
+        <v>121</v>
+      </c>
+      <c r="C167" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>114</v>
+      </c>
+      <c r="B168" t="s">
+        <v>123</v>
+      </c>
+      <c r="C168" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>114</v>
+      </c>
+      <c r="B169" t="s">
+        <v>125</v>
+      </c>
+      <c r="C169" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>114</v>
+      </c>
+      <c r="B170" t="s">
+        <v>127</v>
+      </c>
+      <c r="C170" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>114</v>
+      </c>
+      <c r="B171" t="s">
+        <v>26</v>
+      </c>
+      <c r="C171" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>114</v>
+      </c>
+      <c r="B172" t="s">
+        <v>28</v>
+      </c>
+      <c r="C172" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>114</v>
+      </c>
+      <c r="B173" t="s">
+        <v>30</v>
+      </c>
+      <c r="C173" t="s">
         <v>31</v>
       </c>
-      <c r="B160" t="s">
-        <v>33</v>
-      </c>
-      <c r="C160" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" t="s">
-        <v>31</v>
-      </c>
-      <c r="B161" t="s">
-        <v>34</v>
-      </c>
-      <c r="C161" t="s">
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" t="s">
-        <v>31</v>
+      <c r="B174" t="s">
+        <v>36</v>
+      </c>
+      <c r="C174" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>35</v>
+      </c>
+      <c r="B175" t="s">
+        <v>42</v>
+      </c>
+      <c r="C175" t="s">
+        <v>38</v>
+      </c>
+      <c r="D175" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>35</v>
+      </c>
+      <c r="B176" t="s">
+        <v>40</v>
+      </c>
+      <c r="C176" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>35</v>
+      </c>
+      <c r="B177" t="s">
+        <v>43</v>
+      </c>
+      <c r="C177" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>35</v>
+      </c>
+      <c r="B178" t="s">
+        <v>45</v>
+      </c>
+      <c r="C178" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>35</v>
+      </c>
+      <c r="B179" t="s">
+        <v>47</v>
+      </c>
+      <c r="C179" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>35</v>
+      </c>
+      <c r="B180" t="s">
+        <v>49</v>
+      </c>
+      <c r="C180" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>35</v>
+      </c>
+      <c r="B181" t="s">
+        <v>51</v>
+      </c>
+      <c r="C181" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>35</v>
+      </c>
+      <c r="B182" t="s">
+        <v>53</v>
+      </c>
+      <c r="C182" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>35</v>
+      </c>
+      <c r="B183" t="s">
+        <v>55</v>
+      </c>
+      <c r="C183" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>35</v>
+      </c>
+      <c r="B184" t="s">
+        <v>57</v>
+      </c>
+      <c r="C184" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>35</v>
+      </c>
+      <c r="B185" t="s">
+        <v>59</v>
+      </c>
+      <c r="C185" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>35</v>
+      </c>
+      <c r="B186" t="s">
+        <v>61</v>
+      </c>
+      <c r="C186" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>35</v>
+      </c>
+      <c r="B188" t="s">
+        <v>63</v>
+      </c>
+      <c r="C188" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>35</v>
+      </c>
+      <c r="B189" t="s">
+        <v>65</v>
+      </c>
+      <c r="C189" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>35</v>
+      </c>
+      <c r="B190" t="s">
+        <v>67</v>
+      </c>
+      <c r="C190" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>35</v>
+      </c>
+      <c r="B191" t="s">
+        <v>69</v>
+      </c>
+      <c r="C191" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>35</v>
+      </c>
+      <c r="B192" t="s">
+        <v>71</v>
+      </c>
+      <c r="C192" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>35</v>
+      </c>
+      <c r="B193" t="s">
+        <v>73</v>
+      </c>
+      <c r="C193" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="B194" t="s">
+        <v>1</v>
+      </c>
+      <c r="C194" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="B195" t="s">
+        <v>3</v>
+      </c>
+      <c r="C195" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="B197" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="B198" t="s">
+        <v>9</v>
+      </c>
+      <c r="C198" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="B199" t="s">
+        <v>11</v>
+      </c>
+      <c r="C199" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="B200" t="s">
+        <v>13</v>
+      </c>
+      <c r="C200" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="B201" t="s">
+        <v>15</v>
+      </c>
+      <c r="C201" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="B202" t="s">
+        <v>17</v>
+      </c>
+      <c r="C202" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="B203" t="s">
+        <v>19</v>
+      </c>
+      <c r="C203" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="B204" t="s">
+        <v>21</v>
+      </c>
+      <c r="C204" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="B205" t="s">
+        <v>23</v>
+      </c>
+      <c r="C205" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3891,85 +4693,86 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>409</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>410</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>269</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>271</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>273</v>
       </c>
       <c r="B6" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B7" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="B8" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="B9" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B10" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -3978,4 +4781,132 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3">
+        <v>40688</v>
+      </c>
+      <c r="B2" s="3">
+        <v>32840</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.33055555555555555</v>
+      </c>
+      <c r="E2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3">
+        <v>40688</v>
+      </c>
+      <c r="B3" s="3">
+        <v>32833</v>
+      </c>
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.84930555555555554</v>
+      </c>
+      <c r="E3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3">
+        <v>40689</v>
+      </c>
+      <c r="B4" s="3">
+        <v>32868</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1.3881944444444445</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3">
+        <v>40689</v>
+      </c>
+      <c r="B5" s="3">
+        <v>32861</v>
+      </c>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.65833333333333333</v>
+      </c>
+      <c r="E5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3">
+        <v>40689</v>
+      </c>
+      <c r="B6" s="3">
+        <v>32854</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.75208333333333333</v>
+      </c>
+      <c r="E6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/xword_clue_lookup.xlsx
+++ b/xword_clue_lookup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="18980" yWindow="6800" windowWidth="24040" windowHeight="9640" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="13580" yWindow="2120" windowWidth="15720" windowHeight="14460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,295 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="578">
+  <si>
+    <t>Tried to catch a conger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RALE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chest rattle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Columbia, vis-à-vis the ocean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dadaist Hans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMAGO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entomological stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMEER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Near Eastern chieftain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNERD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dummy Mortimer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALLEE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>French avenue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Old newspaper section</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LILI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leslie Caron role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEVYE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Fiddler on the Roof" fellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PORTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lisboa's sister city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YATES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Film director Peter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENOCH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tennyson's "Enoch Arden"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Come Back, Little Sheba" playwright</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black cuckoo(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNEE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snick's partner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To cut or thrust while fighting with a knife; to use a knife as a weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Printer's measures</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ILEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The holm oak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OMAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poet Khayyam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FARO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roman marketplaces</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LORN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forsaken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ILIADS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long narratives</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SERIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_____-comic (play type)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"____ man with seven…"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I MET A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NINON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curtain material</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RENI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Aurora" painter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SETON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>First U.S. saint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LISP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sigmatism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blotto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Omicron's predecessors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLUET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sky hued flower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ULE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Little:  Suffix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ONERS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dillies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robert Morse stage role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELAH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Psalms word</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EELED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>Uris's "_____ Pass"</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +412,82 @@
   </si>
   <si>
     <t>Southeast Kansas town</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EGAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Author of "Life in London"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ONEAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Love Story" star</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abner's pal and namesakes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELMONT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long Island Town</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AARON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exodus priest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Runner Sebastian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DORE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Illustratore Gustave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dye color (indigo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANI(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NABOB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High-muck-a-muck</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2014,13 +2378,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2364,13 +2731,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>346</v>
+        <v>437</v>
       </c>
       <c r="B1" t="s">
-        <v>347</v>
+        <v>438</v>
       </c>
       <c r="C1" t="s">
-        <v>348</v>
+        <v>439</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2378,10 +2745,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>350</v>
+        <v>441</v>
       </c>
       <c r="C2" t="s">
-        <v>349</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2389,10 +2756,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2413,10 +2780,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:D205"/>
+  <dimension ref="A1:D250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="B206" sqref="B206"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="B251" sqref="B251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2429,2240 +2796,2678 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>369</v>
+        <v>460</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>370</v>
+        <v>461</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>371</v>
+        <v>462</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>480</v>
+        <v>571</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
       <c r="B2" t="s">
-        <v>352</v>
+        <v>443</v>
       </c>
       <c r="C2" t="s">
-        <v>290</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
       <c r="B3" t="s">
-        <v>359</v>
+        <v>450</v>
       </c>
       <c r="C3" t="s">
-        <v>353</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
       <c r="B4" t="s">
-        <v>362</v>
+        <v>453</v>
       </c>
       <c r="C4" t="s">
-        <v>354</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
       <c r="B5" t="s">
-        <v>355</v>
+        <v>446</v>
       </c>
       <c r="C5" t="s">
-        <v>356</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
       <c r="B6" t="s">
-        <v>357</v>
+        <v>448</v>
       </c>
       <c r="C6" t="s">
-        <v>358</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
       <c r="B7" t="s">
-        <v>360</v>
+        <v>451</v>
       </c>
       <c r="C7" t="s">
-        <v>361</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
       <c r="B8" t="s">
-        <v>363</v>
+        <v>454</v>
       </c>
       <c r="C8" t="s">
-        <v>364</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
       <c r="B9" t="s">
-        <v>365</v>
+        <v>456</v>
       </c>
       <c r="C9" t="s">
-        <v>366</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
       <c r="B10" t="s">
-        <v>367</v>
+        <v>458</v>
       </c>
       <c r="C10" t="s">
-        <v>368</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>372</v>
+        <v>463</v>
       </c>
       <c r="B11" t="s">
-        <v>373</v>
+        <v>464</v>
       </c>
       <c r="C11" t="s">
-        <v>337</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>372</v>
+        <v>463</v>
       </c>
       <c r="B12" t="s">
-        <v>374</v>
+        <v>465</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>375</v>
+        <v>466</v>
       </c>
       <c r="D12" t="s">
-        <v>343</v>
+        <v>434</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>372</v>
+        <v>463</v>
       </c>
       <c r="B13" t="s">
-        <v>376</v>
+        <v>467</v>
       </c>
       <c r="C13" t="s">
-        <v>412</v>
+        <v>503</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>372</v>
+        <v>463</v>
       </c>
       <c r="B14" t="s">
-        <v>413</v>
+        <v>504</v>
       </c>
       <c r="C14" t="s">
-        <v>414</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>372</v>
+        <v>463</v>
       </c>
       <c r="B15" t="s">
-        <v>415</v>
+        <v>506</v>
       </c>
       <c r="C15" t="s">
-        <v>416</v>
+        <v>507</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>372</v>
+        <v>463</v>
       </c>
       <c r="B16" t="s">
-        <v>417</v>
+        <v>508</v>
       </c>
       <c r="C16" t="s">
-        <v>418</v>
+        <v>509</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>372</v>
+        <v>463</v>
       </c>
       <c r="B17" t="s">
-        <v>419</v>
+        <v>510</v>
       </c>
       <c r="C17" t="s">
-        <v>457</v>
+        <v>548</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>372</v>
+        <v>463</v>
       </c>
       <c r="B18" t="s">
-        <v>458</v>
+        <v>549</v>
       </c>
       <c r="C18" t="s">
-        <v>459</v>
+        <v>550</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>372</v>
+        <v>463</v>
       </c>
       <c r="B19" t="s">
-        <v>460</v>
+        <v>551</v>
       </c>
       <c r="C19" t="s">
-        <v>461</v>
+        <v>552</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>372</v>
+        <v>463</v>
       </c>
       <c r="B20" t="s">
-        <v>462</v>
+        <v>553</v>
       </c>
       <c r="C20" t="s">
-        <v>463</v>
+        <v>554</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>372</v>
+        <v>463</v>
       </c>
       <c r="B21" t="s">
-        <v>464</v>
+        <v>555</v>
       </c>
       <c r="C21" t="s">
-        <v>465</v>
+        <v>556</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>466</v>
+        <v>557</v>
       </c>
       <c r="B22" t="s">
-        <v>467</v>
+        <v>558</v>
       </c>
       <c r="C22" t="s">
-        <v>468</v>
+        <v>559</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>466</v>
+        <v>557</v>
       </c>
       <c r="B23" t="s">
-        <v>469</v>
+        <v>560</v>
       </c>
       <c r="C23" t="s">
-        <v>470</v>
+        <v>561</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>466</v>
+        <v>557</v>
       </c>
       <c r="B24" t="s">
-        <v>471</v>
+        <v>562</v>
       </c>
       <c r="C24" t="s">
-        <v>472</v>
+        <v>563</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>466</v>
+        <v>557</v>
       </c>
       <c r="B25" t="s">
-        <v>473</v>
+        <v>564</v>
       </c>
       <c r="C25" t="s">
-        <v>474</v>
+        <v>565</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>481</v>
+        <v>572</v>
       </c>
       <c r="B26" t="s">
-        <v>475</v>
+        <v>566</v>
       </c>
       <c r="C26" t="s">
-        <v>476</v>
+        <v>567</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>481</v>
+        <v>572</v>
       </c>
       <c r="B27" t="s">
-        <v>477</v>
+        <v>568</v>
       </c>
       <c r="C27" t="s">
-        <v>478</v>
+        <v>569</v>
       </c>
       <c r="D27" t="s">
-        <v>479</v>
+        <v>570</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>481</v>
+        <v>572</v>
       </c>
       <c r="B28" t="s">
-        <v>482</v>
+        <v>573</v>
       </c>
       <c r="C28" t="s">
-        <v>483</v>
+        <v>574</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>481</v>
+        <v>572</v>
       </c>
       <c r="B29" t="s">
-        <v>484</v>
+        <v>575</v>
       </c>
       <c r="C29" t="s">
-        <v>485</v>
+        <v>576</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>481</v>
+        <v>572</v>
       </c>
       <c r="B30" t="s">
-        <v>486</v>
+        <v>577</v>
       </c>
       <c r="C30" t="s">
-        <v>338</v>
+        <v>429</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>481</v>
+        <v>572</v>
       </c>
       <c r="B31" t="s">
-        <v>339</v>
+        <v>430</v>
       </c>
       <c r="C31" t="s">
-        <v>340</v>
+        <v>431</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>481</v>
+        <v>572</v>
       </c>
       <c r="B32" t="s">
-        <v>341</v>
+        <v>432</v>
       </c>
       <c r="C32" t="s">
-        <v>342</v>
+        <v>433</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>344</v>
+        <v>435</v>
       </c>
       <c r="B33" t="s">
-        <v>345</v>
+        <v>436</v>
       </c>
       <c r="C33" t="s">
-        <v>274</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>344</v>
+        <v>435</v>
       </c>
       <c r="B34" t="s">
-        <v>275</v>
+        <v>366</v>
       </c>
       <c r="C34" t="s">
-        <v>276</v>
+        <v>367</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>344</v>
+        <v>435</v>
       </c>
       <c r="B35" t="s">
-        <v>277</v>
+        <v>368</v>
       </c>
       <c r="C35" t="s">
-        <v>278</v>
+        <v>369</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>344</v>
+        <v>435</v>
       </c>
       <c r="B36" t="s">
-        <v>279</v>
+        <v>370</v>
       </c>
       <c r="C36" t="s">
-        <v>280</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>344</v>
+        <v>435</v>
       </c>
       <c r="B37" t="s">
-        <v>281</v>
+        <v>372</v>
       </c>
       <c r="C37" t="s">
-        <v>282</v>
+        <v>373</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>283</v>
+        <v>374</v>
       </c>
       <c r="B38" t="s">
-        <v>284</v>
+        <v>375</v>
       </c>
       <c r="C38" t="s">
-        <v>286</v>
+        <v>377</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>283</v>
+        <v>374</v>
       </c>
       <c r="B39" t="s">
-        <v>288</v>
+        <v>379</v>
       </c>
       <c r="C39" t="s">
-        <v>289</v>
+        <v>380</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>283</v>
+        <v>374</v>
       </c>
       <c r="B40" t="s">
-        <v>291</v>
+        <v>382</v>
       </c>
       <c r="C40" t="s">
-        <v>292</v>
+        <v>383</v>
       </c>
       <c r="D40" t="s">
-        <v>449</v>
+        <v>540</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>283</v>
+        <v>374</v>
       </c>
       <c r="B41" t="s">
-        <v>293</v>
+        <v>384</v>
       </c>
       <c r="C41" t="s">
-        <v>294</v>
+        <v>385</v>
       </c>
       <c r="D41" t="s">
-        <v>448</v>
+        <v>539</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>283</v>
+        <v>374</v>
       </c>
       <c r="B42" t="s">
-        <v>285</v>
+        <v>376</v>
       </c>
       <c r="C42" t="s">
-        <v>287</v>
+        <v>378</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>283</v>
+        <v>374</v>
       </c>
       <c r="B43" t="s">
-        <v>295</v>
+        <v>386</v>
       </c>
       <c r="C43" t="s">
-        <v>296</v>
+        <v>387</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>283</v>
+        <v>374</v>
       </c>
       <c r="B44" t="s">
-        <v>297</v>
+        <v>388</v>
       </c>
       <c r="C44" t="s">
-        <v>298</v>
+        <v>389</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>450</v>
+        <v>541</v>
       </c>
       <c r="B45" t="s">
-        <v>455</v>
+        <v>546</v>
       </c>
       <c r="C45" t="s">
-        <v>456</v>
+        <v>547</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>450</v>
+        <v>541</v>
       </c>
       <c r="B46" t="s">
-        <v>391</v>
+        <v>482</v>
       </c>
       <c r="C46" t="s">
-        <v>392</v>
+        <v>483</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>450</v>
+        <v>541</v>
       </c>
       <c r="B47" t="s">
-        <v>393</v>
+        <v>484</v>
       </c>
       <c r="C47" t="s">
-        <v>394</v>
+        <v>485</v>
       </c>
       <c r="D47" t="s">
-        <v>395</v>
+        <v>486</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>450</v>
+        <v>541</v>
       </c>
       <c r="B48" t="s">
-        <v>396</v>
+        <v>487</v>
       </c>
       <c r="C48" t="s">
-        <v>397</v>
+        <v>488</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>450</v>
+        <v>541</v>
       </c>
       <c r="B49" t="s">
-        <v>398</v>
+        <v>489</v>
       </c>
       <c r="C49" t="s">
-        <v>399</v>
+        <v>490</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>450</v>
+        <v>541</v>
       </c>
       <c r="B50" t="s">
-        <v>400</v>
+        <v>491</v>
       </c>
       <c r="C50" t="s">
-        <v>401</v>
+        <v>492</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>450</v>
+        <v>541</v>
       </c>
       <c r="B51" t="s">
-        <v>402</v>
+        <v>493</v>
       </c>
       <c r="C51" t="s">
-        <v>403</v>
+        <v>494</v>
       </c>
       <c r="D51" t="s">
-        <v>404</v>
+        <v>495</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>451</v>
+        <v>542</v>
       </c>
       <c r="B52" t="s">
-        <v>405</v>
+        <v>496</v>
       </c>
       <c r="C52" t="s">
-        <v>406</v>
+        <v>497</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>451</v>
+        <v>542</v>
       </c>
       <c r="B53" t="s">
-        <v>407</v>
+        <v>498</v>
       </c>
       <c r="C53" t="s">
-        <v>408</v>
+        <v>499</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>231</v>
+        <v>322</v>
       </c>
       <c r="B54" t="s">
-        <v>233</v>
+        <v>324</v>
       </c>
       <c r="C54" t="s">
-        <v>232</v>
+        <v>323</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>231</v>
+        <v>322</v>
       </c>
       <c r="B55" t="s">
-        <v>234</v>
+        <v>325</v>
       </c>
       <c r="C55" t="s">
-        <v>235</v>
+        <v>326</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>231</v>
+        <v>322</v>
       </c>
       <c r="B56" t="s">
-        <v>377</v>
+        <v>468</v>
       </c>
       <c r="C56" t="s">
-        <v>378</v>
+        <v>469</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>231</v>
+        <v>322</v>
       </c>
       <c r="B57" t="s">
-        <v>379</v>
+        <v>470</v>
       </c>
       <c r="C57" t="s">
-        <v>380</v>
+        <v>471</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>231</v>
+        <v>322</v>
       </c>
       <c r="B58" t="s">
-        <v>381</v>
+        <v>472</v>
       </c>
       <c r="C58" t="s">
-        <v>382</v>
+        <v>473</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>231</v>
+        <v>322</v>
       </c>
       <c r="B59" t="s">
-        <v>383</v>
+        <v>474</v>
       </c>
       <c r="C59" t="s">
-        <v>384</v>
+        <v>475</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>231</v>
+        <v>322</v>
       </c>
       <c r="B60" t="s">
-        <v>385</v>
+        <v>476</v>
       </c>
       <c r="C60" t="s">
-        <v>386</v>
+        <v>477</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>452</v>
+        <v>543</v>
       </c>
       <c r="B61" t="s">
-        <v>387</v>
+        <v>478</v>
       </c>
       <c r="C61" t="s">
-        <v>388</v>
+        <v>479</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>452</v>
+        <v>543</v>
       </c>
       <c r="B62" t="s">
-        <v>389</v>
+        <v>480</v>
       </c>
       <c r="C62" t="s">
-        <v>390</v>
+        <v>481</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>452</v>
+        <v>543</v>
       </c>
       <c r="B63" t="s">
-        <v>308</v>
+        <v>399</v>
       </c>
       <c r="C63" t="s">
-        <v>309</v>
+        <v>400</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>452</v>
+        <v>543</v>
       </c>
       <c r="B64" t="s">
-        <v>310</v>
+        <v>401</v>
       </c>
       <c r="C64" t="s">
-        <v>311</v>
+        <v>402</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>312</v>
+        <v>403</v>
       </c>
       <c r="B65" t="s">
-        <v>313</v>
+        <v>404</v>
       </c>
       <c r="C65" t="s">
-        <v>314</v>
+        <v>405</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>312</v>
+        <v>403</v>
       </c>
       <c r="B66" t="s">
-        <v>315</v>
+        <v>406</v>
       </c>
       <c r="C66" t="s">
-        <v>316</v>
+        <v>407</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>312</v>
+        <v>403</v>
       </c>
       <c r="B67" t="s">
-        <v>317</v>
+        <v>408</v>
       </c>
       <c r="C67" t="s">
-        <v>318</v>
+        <v>409</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>312</v>
+        <v>403</v>
       </c>
       <c r="B68" t="s">
-        <v>319</v>
+        <v>410</v>
       </c>
       <c r="C68" t="s">
-        <v>320</v>
+        <v>411</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>312</v>
+        <v>403</v>
       </c>
       <c r="B69" t="s">
-        <v>321</v>
+        <v>412</v>
       </c>
       <c r="C69" t="s">
-        <v>322</v>
+        <v>413</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>312</v>
+        <v>403</v>
       </c>
       <c r="B70" t="s">
-        <v>323</v>
+        <v>414</v>
       </c>
       <c r="C70" t="s">
-        <v>324</v>
+        <v>415</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>312</v>
+        <v>403</v>
       </c>
       <c r="B71" t="s">
-        <v>325</v>
+        <v>416</v>
       </c>
       <c r="C71" t="s">
-        <v>326</v>
+        <v>417</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>312</v>
+        <v>403</v>
       </c>
       <c r="B72" t="s">
-        <v>327</v>
+        <v>418</v>
       </c>
       <c r="C72" t="s">
-        <v>328</v>
+        <v>419</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>312</v>
+        <v>403</v>
       </c>
       <c r="B73" t="s">
-        <v>329</v>
+        <v>420</v>
       </c>
       <c r="C73" t="s">
-        <v>330</v>
+        <v>421</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>453</v>
+        <v>544</v>
       </c>
       <c r="B74" t="s">
-        <v>331</v>
+        <v>422</v>
       </c>
       <c r="C74" t="s">
-        <v>332</v>
+        <v>423</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>453</v>
+        <v>544</v>
       </c>
       <c r="B75" t="s">
-        <v>333</v>
+        <v>424</v>
       </c>
       <c r="C75" t="s">
-        <v>334</v>
+        <v>425</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>453</v>
+        <v>544</v>
       </c>
       <c r="B76" t="s">
-        <v>335</v>
+        <v>426</v>
       </c>
       <c r="C76" t="s">
-        <v>336</v>
+        <v>427</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>453</v>
+        <v>544</v>
       </c>
       <c r="B77" t="s">
-        <v>207</v>
+        <v>298</v>
       </c>
       <c r="C77" t="s">
-        <v>208</v>
+        <v>299</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>453</v>
+        <v>544</v>
       </c>
       <c r="B78" t="s">
-        <v>209</v>
+        <v>300</v>
       </c>
       <c r="C78" t="s">
-        <v>210</v>
+        <v>301</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>454</v>
+        <v>545</v>
       </c>
       <c r="B79" t="s">
-        <v>211</v>
+        <v>302</v>
       </c>
       <c r="C79" t="s">
-        <v>212</v>
+        <v>303</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>454</v>
+        <v>545</v>
       </c>
       <c r="B80" t="s">
-        <v>213</v>
+        <v>304</v>
       </c>
       <c r="C80" t="s">
-        <v>214</v>
+        <v>305</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>454</v>
+        <v>545</v>
       </c>
       <c r="B81" t="s">
-        <v>215</v>
+        <v>306</v>
       </c>
       <c r="C81" t="s">
-        <v>216</v>
+        <v>307</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>454</v>
+        <v>545</v>
       </c>
       <c r="B82" t="s">
-        <v>217</v>
+        <v>308</v>
       </c>
       <c r="C82" t="s">
-        <v>218</v>
+        <v>309</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>454</v>
+        <v>545</v>
       </c>
       <c r="B83" t="s">
-        <v>219</v>
+        <v>310</v>
       </c>
       <c r="C83" t="s">
-        <v>133</v>
+        <v>224</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>454</v>
+        <v>545</v>
       </c>
       <c r="B84" t="s">
-        <v>134</v>
+        <v>225</v>
       </c>
       <c r="C84" t="s">
-        <v>135</v>
+        <v>226</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>454</v>
+        <v>545</v>
       </c>
       <c r="B85" t="s">
-        <v>136</v>
+        <v>227</v>
       </c>
       <c r="C85" t="s">
-        <v>137</v>
+        <v>228</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>138</v>
+        <v>229</v>
       </c>
       <c r="B86" t="s">
-        <v>139</v>
+        <v>230</v>
       </c>
       <c r="C86" t="s">
-        <v>140</v>
+        <v>231</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>138</v>
+        <v>229</v>
       </c>
       <c r="B87" t="s">
-        <v>141</v>
+        <v>232</v>
       </c>
       <c r="C87" t="s">
-        <v>142</v>
+        <v>233</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>138</v>
+        <v>229</v>
       </c>
       <c r="B88" t="s">
-        <v>143</v>
+        <v>234</v>
       </c>
       <c r="C88" t="s">
-        <v>144</v>
+        <v>235</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>145</v>
+        <v>236</v>
       </c>
       <c r="B89" t="s">
-        <v>146</v>
+        <v>237</v>
       </c>
       <c r="C89" t="s">
-        <v>147</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>145</v>
+        <v>236</v>
       </c>
       <c r="B90" t="s">
-        <v>148</v>
+        <v>239</v>
       </c>
       <c r="C90" t="s">
-        <v>149</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>145</v>
+        <v>236</v>
       </c>
       <c r="B91" t="s">
-        <v>150</v>
+        <v>241</v>
       </c>
       <c r="C91" t="s">
-        <v>151</v>
+        <v>242</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>145</v>
+        <v>236</v>
       </c>
       <c r="B92" t="s">
-        <v>152</v>
+        <v>243</v>
       </c>
       <c r="C92" t="s">
-        <v>153</v>
+        <v>244</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>154</v>
+        <v>245</v>
       </c>
       <c r="B93" t="s">
-        <v>155</v>
+        <v>246</v>
       </c>
       <c r="C93" t="s">
-        <v>156</v>
+        <v>247</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>154</v>
+        <v>245</v>
       </c>
       <c r="B94" t="s">
-        <v>157</v>
+        <v>248</v>
       </c>
       <c r="C94" t="s">
-        <v>158</v>
+        <v>249</v>
       </c>
       <c r="D94" t="s">
-        <v>159</v>
+        <v>250</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>154</v>
+        <v>245</v>
       </c>
       <c r="B95" t="s">
-        <v>160</v>
+        <v>251</v>
       </c>
       <c r="C95" t="s">
-        <v>161</v>
+        <v>252</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>154</v>
+        <v>245</v>
       </c>
       <c r="B96" t="s">
-        <v>162</v>
+        <v>253</v>
       </c>
       <c r="C96" t="s">
-        <v>163</v>
+        <v>254</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>154</v>
+        <v>245</v>
       </c>
       <c r="B97" t="s">
-        <v>164</v>
+        <v>255</v>
       </c>
       <c r="C97" t="s">
-        <v>165</v>
+        <v>256</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>166</v>
+        <v>257</v>
       </c>
       <c r="B98" t="s">
-        <v>167</v>
+        <v>258</v>
       </c>
       <c r="C98" t="s">
-        <v>299</v>
+        <v>390</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>166</v>
+        <v>257</v>
       </c>
       <c r="B99" t="s">
-        <v>300</v>
+        <v>391</v>
       </c>
       <c r="C99" t="s">
-        <v>301</v>
+        <v>392</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>166</v>
+        <v>257</v>
       </c>
       <c r="B100" t="s">
-        <v>302</v>
+        <v>393</v>
       </c>
       <c r="C100" t="s">
-        <v>303</v>
+        <v>394</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>166</v>
+        <v>257</v>
       </c>
       <c r="B101" t="s">
-        <v>304</v>
+        <v>395</v>
       </c>
       <c r="C101" t="s">
-        <v>305</v>
+        <v>396</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>166</v>
+        <v>257</v>
       </c>
       <c r="B102" t="s">
-        <v>306</v>
+        <v>397</v>
       </c>
       <c r="C102" t="s">
-        <v>307</v>
+        <v>398</v>
       </c>
       <c r="D102" t="s">
-        <v>239</v>
+        <v>330</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>166</v>
+        <v>257</v>
       </c>
       <c r="B103" t="s">
-        <v>240</v>
+        <v>331</v>
       </c>
       <c r="C103" t="s">
-        <v>241</v>
+        <v>332</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>166</v>
+        <v>257</v>
       </c>
       <c r="B104" t="s">
-        <v>242</v>
+        <v>333</v>
       </c>
       <c r="C104" t="s">
-        <v>243</v>
+        <v>334</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>166</v>
+        <v>257</v>
       </c>
       <c r="B105" t="s">
-        <v>244</v>
+        <v>335</v>
       </c>
       <c r="C105" t="s">
-        <v>245</v>
+        <v>336</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>166</v>
+        <v>257</v>
       </c>
       <c r="B106" t="s">
-        <v>246</v>
+        <v>337</v>
       </c>
       <c r="C106" t="s">
-        <v>247</v>
+        <v>338</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>250</v>
+        <v>341</v>
       </c>
       <c r="B107" t="s">
-        <v>248</v>
+        <v>339</v>
       </c>
       <c r="C107" t="s">
-        <v>249</v>
+        <v>340</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>250</v>
+        <v>341</v>
       </c>
       <c r="B108" t="s">
-        <v>251</v>
+        <v>342</v>
       </c>
       <c r="C108" t="s">
-        <v>252</v>
+        <v>343</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>250</v>
+        <v>341</v>
       </c>
       <c r="B109" t="s">
-        <v>253</v>
+        <v>344</v>
       </c>
       <c r="C109" t="s">
-        <v>254</v>
+        <v>345</v>
       </c>
       <c r="D109" t="s">
-        <v>255</v>
+        <v>346</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>250</v>
+        <v>341</v>
       </c>
       <c r="B110" t="s">
-        <v>256</v>
+        <v>347</v>
       </c>
       <c r="C110" t="s">
-        <v>257</v>
+        <v>348</v>
       </c>
       <c r="D110" t="s">
-        <v>258</v>
+        <v>349</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>250</v>
+        <v>341</v>
       </c>
       <c r="B111" t="s">
-        <v>259</v>
+        <v>350</v>
       </c>
       <c r="C111" t="s">
-        <v>260</v>
+        <v>351</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>250</v>
+        <v>341</v>
       </c>
       <c r="B112" t="s">
-        <v>261</v>
+        <v>352</v>
       </c>
       <c r="C112" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>250</v>
+        <v>341</v>
       </c>
       <c r="B113" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="C113" t="s">
-        <v>264</v>
+        <v>355</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>250</v>
+        <v>341</v>
       </c>
       <c r="B114" t="s">
-        <v>265</v>
+        <v>356</v>
       </c>
       <c r="C114" t="s">
-        <v>266</v>
+        <v>357</v>
       </c>
       <c r="D114" t="s">
-        <v>267</v>
+        <v>358</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>250</v>
+        <v>341</v>
       </c>
       <c r="B115" t="s">
-        <v>128</v>
+        <v>219</v>
       </c>
       <c r="C115" t="s">
-        <v>129</v>
+        <v>220</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>250</v>
+        <v>341</v>
       </c>
       <c r="B116" t="s">
-        <v>130</v>
+        <v>221</v>
       </c>
       <c r="C116" t="s">
-        <v>131</v>
+        <v>222</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>250</v>
+        <v>341</v>
       </c>
       <c r="B117" t="s">
-        <v>132</v>
+        <v>223</v>
       </c>
       <c r="C117" t="s">
-        <v>74</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="B118" t="s">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="C118" t="s">
-        <v>79</v>
+        <v>170</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="B119" t="s">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="C119" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="D119" t="s">
-        <v>82</v>
+        <v>173</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="B120" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="C120" t="s">
-        <v>84</v>
+        <v>175</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="B121" t="s">
-        <v>85</v>
+        <v>176</v>
       </c>
       <c r="C121" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="B122" t="s">
-        <v>313</v>
+        <v>404</v>
       </c>
       <c r="C122" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>88</v>
+        <v>179</v>
       </c>
       <c r="B123" t="s">
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="C123" t="s">
-        <v>89</v>
+        <v>180</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>88</v>
+        <v>179</v>
       </c>
       <c r="B124" t="s">
-        <v>300</v>
+        <v>391</v>
       </c>
       <c r="C124" t="s">
-        <v>91</v>
+        <v>182</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>88</v>
+        <v>179</v>
       </c>
       <c r="B125" t="s">
-        <v>92</v>
+        <v>183</v>
       </c>
       <c r="C125" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>88</v>
+        <v>179</v>
       </c>
       <c r="B126" t="s">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="C126" t="s">
-        <v>95</v>
+        <v>186</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>88</v>
+        <v>179</v>
       </c>
       <c r="B127" t="s">
-        <v>96</v>
+        <v>187</v>
       </c>
       <c r="C127" t="s">
-        <v>97</v>
+        <v>188</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="B128" t="s">
-        <v>99</v>
+        <v>190</v>
       </c>
       <c r="C128" t="s">
-        <v>100</v>
+        <v>191</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="B129" t="s">
-        <v>101</v>
+        <v>192</v>
       </c>
       <c r="C129" t="s">
-        <v>102</v>
+        <v>193</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="B130" t="s">
-        <v>103</v>
+        <v>194</v>
       </c>
       <c r="C130" t="s">
-        <v>104</v>
+        <v>195</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="B131" t="s">
-        <v>105</v>
+        <v>196</v>
       </c>
       <c r="C131" t="s">
-        <v>106</v>
+        <v>197</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="B132" t="s">
-        <v>237</v>
+        <v>328</v>
       </c>
       <c r="C132" t="s">
-        <v>236</v>
+        <v>327</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>238</v>
+        <v>329</v>
       </c>
       <c r="B133" t="s">
-        <v>168</v>
+        <v>259</v>
       </c>
       <c r="C133" t="s">
-        <v>169</v>
+        <v>260</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>238</v>
+        <v>329</v>
       </c>
       <c r="B134" t="s">
-        <v>170</v>
+        <v>261</v>
       </c>
       <c r="C134" t="s">
-        <v>171</v>
+        <v>262</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>238</v>
+        <v>329</v>
       </c>
       <c r="B135" t="s">
-        <v>173</v>
+        <v>264</v>
       </c>
       <c r="C135" t="s">
-        <v>172</v>
+        <v>263</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>238</v>
+        <v>329</v>
       </c>
       <c r="B136" t="s">
-        <v>174</v>
+        <v>265</v>
       </c>
       <c r="C136" t="s">
-        <v>175</v>
+        <v>266</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>238</v>
+        <v>329</v>
       </c>
       <c r="B137" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
       <c r="C137" t="s">
-        <v>177</v>
+        <v>268</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>238</v>
+        <v>329</v>
       </c>
       <c r="B138" t="s">
-        <v>178</v>
+        <v>269</v>
       </c>
       <c r="C138" t="s">
-        <v>179</v>
+        <v>270</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>238</v>
+        <v>329</v>
       </c>
       <c r="B139" t="s">
-        <v>180</v>
+        <v>271</v>
       </c>
       <c r="C139" t="s">
-        <v>181</v>
+        <v>272</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>238</v>
+        <v>329</v>
       </c>
       <c r="B140" t="s">
-        <v>182</v>
+        <v>273</v>
       </c>
       <c r="C140" t="s">
-        <v>183</v>
+        <v>274</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>184</v>
+        <v>275</v>
       </c>
       <c r="B141" t="s">
-        <v>186</v>
+        <v>277</v>
       </c>
       <c r="C141" t="s">
-        <v>185</v>
+        <v>276</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>184</v>
+        <v>275</v>
       </c>
       <c r="B142" t="s">
-        <v>188</v>
+        <v>279</v>
       </c>
       <c r="C142" t="s">
-        <v>187</v>
+        <v>278</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>184</v>
+        <v>275</v>
       </c>
       <c r="B143" t="s">
-        <v>189</v>
+        <v>280</v>
       </c>
       <c r="C143" t="s">
-        <v>190</v>
+        <v>281</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>191</v>
+        <v>282</v>
       </c>
       <c r="B144" t="s">
-        <v>192</v>
+        <v>283</v>
       </c>
       <c r="C144" t="s">
-        <v>193</v>
+        <v>284</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>191</v>
+        <v>282</v>
       </c>
       <c r="B145" t="s">
-        <v>194</v>
+        <v>285</v>
       </c>
       <c r="C145" t="s">
-        <v>195</v>
+        <v>286</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>196</v>
+        <v>287</v>
       </c>
       <c r="B146" t="s">
-        <v>197</v>
+        <v>288</v>
       </c>
       <c r="C146" t="s">
-        <v>198</v>
+        <v>289</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>199</v>
+        <v>290</v>
       </c>
       <c r="B147" t="s">
-        <v>200</v>
+        <v>291</v>
       </c>
       <c r="C147" t="s">
-        <v>201</v>
+        <v>292</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>199</v>
+        <v>290</v>
       </c>
       <c r="B148" t="s">
-        <v>202</v>
+        <v>293</v>
       </c>
       <c r="C148" t="s">
-        <v>203</v>
+        <v>294</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>199</v>
+        <v>290</v>
       </c>
       <c r="B149" t="s">
-        <v>204</v>
+        <v>295</v>
       </c>
       <c r="C149" t="s">
-        <v>205</v>
+        <v>296</v>
       </c>
       <c r="D149" t="s">
-        <v>206</v>
+        <v>297</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>420</v>
+        <v>511</v>
       </c>
       <c r="B150" t="s">
-        <v>421</v>
+        <v>512</v>
       </c>
       <c r="C150" t="s">
-        <v>422</v>
+        <v>513</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>420</v>
+        <v>511</v>
       </c>
       <c r="B151" t="s">
-        <v>423</v>
+        <v>514</v>
       </c>
       <c r="C151" t="s">
-        <v>424</v>
+        <v>515</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>425</v>
+        <v>516</v>
       </c>
       <c r="B152" t="s">
-        <v>426</v>
+        <v>517</v>
       </c>
       <c r="C152" t="s">
-        <v>427</v>
+        <v>518</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>425</v>
+        <v>516</v>
       </c>
       <c r="B153" t="s">
-        <v>428</v>
+        <v>519</v>
       </c>
       <c r="C153" t="s">
-        <v>429</v>
+        <v>520</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>425</v>
+        <v>516</v>
       </c>
       <c r="B154" t="s">
-        <v>430</v>
+        <v>521</v>
       </c>
       <c r="C154" t="s">
-        <v>431</v>
+        <v>522</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>425</v>
+        <v>516</v>
       </c>
       <c r="B155" t="s">
-        <v>432</v>
+        <v>523</v>
       </c>
       <c r="C155" t="s">
-        <v>433</v>
+        <v>524</v>
       </c>
       <c r="D155" t="s">
-        <v>434</v>
+        <v>525</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>425</v>
+        <v>516</v>
       </c>
       <c r="B156" t="s">
-        <v>435</v>
+        <v>526</v>
       </c>
       <c r="C156" t="s">
-        <v>436</v>
+        <v>527</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>425</v>
+        <v>516</v>
       </c>
       <c r="B157" t="s">
-        <v>437</v>
+        <v>528</v>
       </c>
       <c r="C157" t="s">
-        <v>438</v>
+        <v>529</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>425</v>
+        <v>516</v>
       </c>
       <c r="B158" t="s">
-        <v>439</v>
+        <v>530</v>
       </c>
       <c r="C158" t="s">
-        <v>440</v>
+        <v>531</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>425</v>
+        <v>516</v>
       </c>
       <c r="B159" t="s">
-        <v>441</v>
+        <v>532</v>
       </c>
       <c r="C159" t="s">
-        <v>442</v>
+        <v>533</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>443</v>
+        <v>534</v>
       </c>
       <c r="B160" t="s">
-        <v>445</v>
+        <v>536</v>
       </c>
       <c r="C160" t="s">
-        <v>444</v>
+        <v>535</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>443</v>
+        <v>534</v>
       </c>
       <c r="B161" t="s">
-        <v>446</v>
+        <v>537</v>
       </c>
       <c r="C161" t="s">
-        <v>447</v>
+        <v>538</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>443</v>
+        <v>534</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>443</v>
+        <v>534</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>114</v>
+        <v>205</v>
       </c>
       <c r="B165" t="s">
-        <v>115</v>
+        <v>206</v>
       </c>
       <c r="C165" t="s">
-        <v>116</v>
+        <v>207</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>114</v>
+        <v>205</v>
       </c>
       <c r="B166" t="s">
-        <v>117</v>
+        <v>208</v>
       </c>
       <c r="C166" t="s">
-        <v>118</v>
+        <v>209</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>114</v>
+        <v>205</v>
       </c>
       <c r="B167" t="s">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="C167" t="s">
-        <v>122</v>
+        <v>213</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>114</v>
+        <v>205</v>
       </c>
       <c r="B168" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="C168" t="s">
-        <v>124</v>
+        <v>215</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>114</v>
+        <v>205</v>
       </c>
       <c r="B169" t="s">
-        <v>125</v>
+        <v>216</v>
       </c>
       <c r="C169" t="s">
-        <v>126</v>
+        <v>217</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>114</v>
+        <v>205</v>
       </c>
       <c r="B170" t="s">
-        <v>127</v>
+        <v>218</v>
       </c>
       <c r="C170" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>114</v>
+        <v>205</v>
       </c>
       <c r="B171" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="C171" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>114</v>
+        <v>205</v>
       </c>
       <c r="B172" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="C172" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>114</v>
+        <v>205</v>
       </c>
       <c r="B173" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="C173" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="B174" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="C174" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="B175" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="C175" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="D175" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="B176" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="C176" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="B177" t="s">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="C177" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="B178" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="C178" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="B179" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="C179" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="B180" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="C180" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="B181" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="C181" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="B182" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="C182" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="B183" t="s">
-        <v>55</v>
+        <v>146</v>
       </c>
       <c r="C183" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="B184" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="C184" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="B185" t="s">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="C185" t="s">
-        <v>60</v>
+        <v>151</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="B186" t="s">
-        <v>61</v>
+        <v>152</v>
       </c>
       <c r="C186" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="B188" t="s">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c r="C188" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="B189" t="s">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="C189" t="s">
-        <v>66</v>
+        <v>157</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="B190" t="s">
-        <v>67</v>
+        <v>158</v>
       </c>
       <c r="C190" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="B191" t="s">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="C191" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="B192" t="s">
-        <v>71</v>
+        <v>162</v>
       </c>
       <c r="C192" t="s">
-        <v>72</v>
+        <v>163</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
+        <v>126</v>
+      </c>
+      <c r="B193" t="s">
+        <v>164</v>
+      </c>
+      <c r="C193" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>126</v>
+      </c>
+      <c r="B194" t="s">
+        <v>73</v>
+      </c>
+      <c r="C194" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>126</v>
+      </c>
+      <c r="B195" t="s">
+        <v>75</v>
+      </c>
+      <c r="C195" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>126</v>
+      </c>
+      <c r="B196" t="s">
+        <v>77</v>
+      </c>
+      <c r="C196" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>126</v>
+      </c>
+      <c r="B197" t="s">
+        <v>79</v>
+      </c>
+      <c r="C197" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>126</v>
+      </c>
+      <c r="B198" t="s">
+        <v>81</v>
+      </c>
+      <c r="C198" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>126</v>
+      </c>
+      <c r="B199" t="s">
+        <v>83</v>
+      </c>
+      <c r="C199" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>126</v>
+      </c>
+      <c r="B200" t="s">
+        <v>85</v>
+      </c>
+      <c r="C200" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>126</v>
+      </c>
+      <c r="B201" t="s">
+        <v>87</v>
+      </c>
+      <c r="C201" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>126</v>
+      </c>
+      <c r="B202" t="s">
+        <v>89</v>
+      </c>
+      <c r="C202" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>126</v>
+      </c>
+      <c r="B203" t="s">
+        <v>91</v>
+      </c>
+      <c r="C203" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>126</v>
+      </c>
+      <c r="B204" t="s">
+        <v>93</v>
+      </c>
+      <c r="C204" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>126</v>
+      </c>
+      <c r="B205" t="s">
+        <v>95</v>
+      </c>
+      <c r="C205" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>126</v>
+      </c>
+      <c r="B206" t="s">
+        <v>97</v>
+      </c>
+      <c r="C206" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>126</v>
+      </c>
+      <c r="B207" t="s">
+        <v>99</v>
+      </c>
+      <c r="C207" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>126</v>
+      </c>
+      <c r="B208" t="s">
+        <v>101</v>
+      </c>
+      <c r="C208" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>126</v>
+      </c>
+      <c r="B209" t="s">
+        <v>103</v>
+      </c>
+      <c r="C209" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>126</v>
+      </c>
+      <c r="B210" t="s">
+        <v>105</v>
+      </c>
+      <c r="C210" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>126</v>
+      </c>
+      <c r="B211" t="s">
+        <v>107</v>
+      </c>
+      <c r="C211" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>126</v>
+      </c>
+      <c r="B212" t="s">
+        <v>109</v>
+      </c>
+      <c r="C212" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>126</v>
+      </c>
+      <c r="B213" t="s">
+        <v>111</v>
+      </c>
+      <c r="C213" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>126</v>
+      </c>
+      <c r="B214" t="s">
+        <v>113</v>
+      </c>
+      <c r="C214" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>126</v>
+      </c>
+      <c r="B215" t="s">
+        <v>114</v>
+      </c>
+      <c r="C215" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>126</v>
+      </c>
+      <c r="B216" t="s">
+        <v>30</v>
+      </c>
+      <c r="C216" t="s">
+        <v>31</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>126</v>
+      </c>
+      <c r="B217" t="s">
+        <v>33</v>
+      </c>
+      <c r="C217" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>126</v>
+      </c>
+      <c r="B218" t="s">
         <v>35</v>
       </c>
-      <c r="B193" t="s">
-        <v>73</v>
-      </c>
-      <c r="C193" t="s">
+      <c r="C218" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="B219" t="s">
+        <v>37</v>
+      </c>
+      <c r="C219" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="B220" t="s">
+        <v>39</v>
+      </c>
+      <c r="C220" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="B221" t="s">
+        <v>41</v>
+      </c>
+      <c r="C221" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="B222" t="s">
+        <v>43</v>
+      </c>
+      <c r="C222" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="B223" t="s">
+        <v>45</v>
+      </c>
+      <c r="C223" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="B224" t="s">
+        <v>48</v>
+      </c>
+      <c r="C224" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3">
+      <c r="B225" t="s">
+        <v>49</v>
+      </c>
+      <c r="C225" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3">
+      <c r="B226" t="s">
+        <v>51</v>
+      </c>
+      <c r="C226" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3">
+      <c r="B227" t="s">
+        <v>53</v>
+      </c>
+      <c r="C227" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3">
+      <c r="B228" t="s">
+        <v>55</v>
+      </c>
+      <c r="C228" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3">
+      <c r="B229" t="s">
+        <v>57</v>
+      </c>
+      <c r="C229" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3">
+      <c r="B230" t="s">
+        <v>59</v>
+      </c>
+      <c r="C230" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3">
+      <c r="B231" t="s">
+        <v>61</v>
+      </c>
+      <c r="C231" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3">
+      <c r="B232" t="s">
+        <v>63</v>
+      </c>
+      <c r="C232" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3">
+      <c r="B233" t="s">
+        <v>65</v>
+      </c>
+      <c r="C233" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3">
+      <c r="B234" t="s">
+        <v>67</v>
+      </c>
+      <c r="C234" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3">
+      <c r="B235" t="s">
+        <v>69</v>
+      </c>
+      <c r="C235" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3">
+      <c r="B236" t="s">
+        <v>71</v>
+      </c>
+      <c r="C236" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
-      <c r="B194" t="s">
+    <row r="237" spans="2:3">
+      <c r="B237" t="s">
         <v>1</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C237" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
-      <c r="B195" t="s">
+    <row r="238" spans="2:3">
+      <c r="B238" t="s">
         <v>3</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C238" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
-      <c r="B196" t="s">
+    <row r="239" spans="2:3">
+      <c r="B239" t="s">
         <v>5</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C239" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
-      <c r="B197" t="s">
+    <row r="240" spans="2:3">
+      <c r="B240" t="s">
         <v>7</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C240" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
-      <c r="B198" t="s">
+    <row r="241" spans="2:3">
+      <c r="B241" t="s">
         <v>9</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C241" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
-      <c r="B199" t="s">
+    <row r="242" spans="2:3">
+      <c r="B242" t="s">
         <v>11</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C242" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
-      <c r="B200" t="s">
+    <row r="243" spans="2:3">
+      <c r="B243" t="s">
         <v>13</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C243" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
-      <c r="B201" t="s">
+    <row r="244" spans="2:3">
+      <c r="B244" t="s">
         <v>15</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C244" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
-      <c r="B202" t="s">
+    <row r="245" spans="2:3">
+      <c r="B245" t="s">
         <v>17</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C245" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
-      <c r="B203" t="s">
+    <row r="246" spans="2:3">
+      <c r="B246" t="s">
         <v>19</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C246" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
-      <c r="B204" t="s">
+    <row r="247" spans="2:3">
+      <c r="B247" t="s">
         <v>21</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C247" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
-      <c r="B205" t="s">
+    <row r="248" spans="2:3">
+      <c r="B248" t="s">
         <v>23</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C248" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3">
+      <c r="B249" t="s">
+        <v>25</v>
+      </c>
+      <c r="C249" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3">
+      <c r="B250" t="s">
+        <v>27</v>
+      </c>
+      <c r="C250" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -4693,86 +5498,85 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>320</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>409</v>
+        <v>500</v>
       </c>
       <c r="B2" t="s">
-        <v>268</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>410</v>
+        <v>501</v>
       </c>
       <c r="B3" t="s">
-        <v>411</v>
+        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>269</v>
+        <v>360</v>
       </c>
       <c r="B4" t="s">
-        <v>270</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>271</v>
+        <v>362</v>
       </c>
       <c r="B5" t="s">
-        <v>272</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>273</v>
+        <v>364</v>
       </c>
       <c r="B6" t="s">
-        <v>220</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>221</v>
+        <v>312</v>
       </c>
       <c r="B7" t="s">
-        <v>222</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>223</v>
+        <v>314</v>
       </c>
       <c r="B8" t="s">
-        <v>224</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>225</v>
+        <v>316</v>
       </c>
       <c r="B9" t="s">
-        <v>226</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>227</v>
+        <v>318</v>
       </c>
       <c r="B10" t="s">
-        <v>228</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -4795,19 +5599,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>198</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="C1" t="s">
-        <v>109</v>
+        <v>200</v>
       </c>
       <c r="D1" t="s">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="E1" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4818,13 +5622,13 @@
         <v>32840</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>203</v>
       </c>
       <c r="D2" s="4">
         <v>0.33055555555555555</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4835,13 +5639,13 @@
         <v>32833</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>210</v>
       </c>
       <c r="D3" s="4">
         <v>0.84930555555555554</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4852,16 +5656,16 @@
         <v>32868</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="D4" s="5">
         <v>1.3881944444444445</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4872,13 +5676,13 @@
         <v>32861</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>203</v>
       </c>
       <c r="D5" s="4">
         <v>0.65833333333333333</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4889,17 +5693,16 @@
         <v>32854</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>203</v>
       </c>
       <c r="D6" s="4">
         <v>0.75208333333333333</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
